--- a/FORWARDING BOOKING (Autosaved).xlsx
+++ b/FORWARDING BOOKING (Autosaved).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="13764" windowHeight="6924" tabRatio="671" firstSheet="14" activeTab="18"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="13764" windowHeight="6924" tabRatio="671" firstSheet="19" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="OCTOBER BOOKING" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3414" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3447" uniqueCount="721">
   <si>
     <t>SHIPPER</t>
   </si>
@@ -2166,6 +2166,45 @@
   </si>
   <si>
     <t>OM STONES</t>
+  </si>
+  <si>
+    <t>NIKUL</t>
+  </si>
+  <si>
+    <t>ECO</t>
+  </si>
+  <si>
+    <t>ANJAY</t>
+  </si>
+  <si>
+    <t>JAMES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRABHU </t>
+  </si>
+  <si>
+    <t>MJ TYR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIND </t>
+  </si>
+  <si>
+    <t>MCR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SGR </t>
+  </si>
+  <si>
+    <t>KALIM</t>
+  </si>
+  <si>
+    <t>SKT</t>
+  </si>
+  <si>
+    <t>OMST</t>
+  </si>
+  <si>
+    <t>Sanjay</t>
   </si>
 </sst>
 </file>
@@ -9321,10 +9360,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V49"/>
+  <dimension ref="A1:V64"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="R40" sqref="R40"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11019,6 +11058,116 @@
       </c>
       <c r="L49">
         <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>208</v>
+      </c>
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" t="s">
+        <v>137</v>
+      </c>
+      <c r="E50" t="s">
+        <v>128</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1444</v>
+      </c>
+      <c r="H50">
+        <v>1580</v>
+      </c>
+      <c r="I50">
+        <v>136</v>
+      </c>
+      <c r="J50">
+        <v>1580</v>
+      </c>
+      <c r="L50">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>708</v>
+      </c>
+      <c r="C51" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" t="s">
+        <v>645</v>
+      </c>
+      <c r="E51" t="s">
+        <v>56</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
+      </c>
+      <c r="G51">
+        <v>4485</v>
+      </c>
+      <c r="H51">
+        <v>4650</v>
+      </c>
+      <c r="I51">
+        <v>165</v>
+      </c>
+      <c r="J51">
+        <v>13950</v>
+      </c>
+      <c r="L51">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>432</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" t="s">
+        <v>128</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>1450</v>
+      </c>
+      <c r="H52">
+        <v>1640</v>
+      </c>
+      <c r="I52">
+        <v>190</v>
+      </c>
+      <c r="J52">
+        <v>3280</v>
+      </c>
+      <c r="L52">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="F64">
+        <f>SUM(F2:F63)</f>
+        <v>154</v>
+      </c>
+      <c r="J64">
+        <f>SUM(J2:J63)</f>
+        <v>371803</v>
+      </c>
+      <c r="L64">
+        <f>SUM(L2:L63)</f>
+        <v>31874</v>
       </c>
     </row>
   </sheetData>
@@ -11161,10 +11310,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W30"/>
+  <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11177,7 +11326,7 @@
     <col min="14" max="14" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>354</v>
       </c>
@@ -11206,16 +11355,10 @@
         <v>355</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>272</v>
       </c>
-      <c r="B2">
-        <v>128500</v>
-      </c>
-      <c r="C2">
-        <v>128500</v>
-      </c>
       <c r="J2">
         <v>880000</v>
       </c>
@@ -11223,7 +11366,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -11232,7 +11375,7 @@
       </c>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>128</v>
       </c>
@@ -11245,7 +11388,7 @@
       <c r="M4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>446</v>
       </c>
@@ -11262,8 +11405,14 @@
         <v>96000</v>
       </c>
       <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q5" t="s">
+        <v>709</v>
+      </c>
+      <c r="R5">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>73</v>
       </c>
@@ -11274,8 +11423,14 @@
         <v>112000</v>
       </c>
       <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q6" t="s">
+        <v>391</v>
+      </c>
+      <c r="R6">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>698</v>
       </c>
@@ -11285,8 +11440,14 @@
       <c r="O7">
         <v>116000</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q7" t="s">
+        <v>710</v>
+      </c>
+      <c r="R7">
+        <v>78000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>304</v>
       </c>
@@ -11294,7 +11455,7 @@
         <v>200000</v>
       </c>
       <c r="C8">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="J8" t="s">
         <v>191</v>
@@ -11305,8 +11466,14 @@
       <c r="O8">
         <v>128500</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q8" t="s">
+        <v>711</v>
+      </c>
+      <c r="R8">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>365</v>
       </c>
@@ -11322,8 +11489,14 @@
       <c r="N9">
         <v>97500</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q9" t="s">
+        <v>712</v>
+      </c>
+      <c r="R9">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>433</v>
       </c>
@@ -11336,8 +11509,14 @@
       <c r="N10">
         <v>150000</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q10" t="s">
+        <v>713</v>
+      </c>
+      <c r="R10">
+        <v>79800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>434</v>
       </c>
@@ -11356,8 +11535,14 @@
       <c r="N11">
         <v>150000</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q11" t="s">
+        <v>217</v>
+      </c>
+      <c r="R11">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>144</v>
       </c>
@@ -11368,8 +11553,14 @@
         <v>19000</v>
       </c>
       <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q12" t="s">
+        <v>714</v>
+      </c>
+      <c r="R12">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>217</v>
       </c>
@@ -11388,8 +11579,14 @@
         <v>397500</v>
       </c>
       <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q13" t="s">
+        <v>715</v>
+      </c>
+      <c r="R13">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>439</v>
       </c>
@@ -11398,15 +11595,30 @@
       </c>
       <c r="M14" s="1"/>
       <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q14" t="s">
+        <v>28</v>
+      </c>
+      <c r="R14">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>352</v>
       </c>
+      <c r="C15">
+        <v>78000</v>
+      </c>
       <c r="M15" s="1"/>
       <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q15" t="s">
+        <v>718</v>
+      </c>
+      <c r="R15">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>699</v>
       </c>
@@ -11417,7 +11629,17 @@
         <v>30000</v>
       </c>
       <c r="M16" s="1"/>
+      <c r="N16">
+        <v>7882</v>
+      </c>
+      <c r="O16">
+        <v>11500</v>
+      </c>
       <c r="P16" s="1"/>
+      <c r="R16">
+        <f>SUM(R3:R15)</f>
+        <v>927800</v>
+      </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -11427,6 +11649,12 @@
         <v>623294</v>
       </c>
       <c r="M17" s="1"/>
+      <c r="N17">
+        <v>7211</v>
+      </c>
+      <c r="O17">
+        <v>6000</v>
+      </c>
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
@@ -11437,6 +11665,12 @@
         <v>124658</v>
       </c>
       <c r="M18" s="1"/>
+      <c r="N18">
+        <v>1777</v>
+      </c>
+      <c r="O18">
+        <v>6000</v>
+      </c>
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
@@ -11450,6 +11684,12 @@
         <v>498645</v>
       </c>
       <c r="M19" s="1"/>
+      <c r="N19">
+        <v>7255</v>
+      </c>
+      <c r="O19">
+        <v>6000</v>
+      </c>
       <c r="P19" s="1"/>
       <c r="V19" t="s">
         <v>336</v>
@@ -11471,6 +11711,12 @@
       </c>
       <c r="M20" s="1"/>
       <c r="P20" s="1"/>
+      <c r="Q20" t="s">
+        <v>635</v>
+      </c>
+      <c r="R20">
+        <v>1250000</v>
+      </c>
       <c r="V20" t="s">
         <v>274</v>
       </c>
@@ -11489,6 +11735,12 @@
         <v>850000</v>
       </c>
       <c r="M21" s="1"/>
+      <c r="Q21" t="s">
+        <v>604</v>
+      </c>
+      <c r="R21">
+        <v>850000</v>
+      </c>
       <c r="V21" t="s">
         <v>337</v>
       </c>
@@ -11510,6 +11762,12 @@
         <v>353</v>
       </c>
       <c r="M22" s="1"/>
+      <c r="Q22" t="s">
+        <v>716</v>
+      </c>
+      <c r="R22">
+        <v>400000</v>
+      </c>
       <c r="V22" t="s">
         <v>357</v>
       </c>
@@ -11528,6 +11786,12 @@
         <v>140000</v>
       </c>
       <c r="M23" s="1"/>
+      <c r="Q23" t="s">
+        <v>596</v>
+      </c>
+      <c r="R23">
+        <v>1100000</v>
+      </c>
       <c r="V23" t="s">
         <v>216</v>
       </c>
@@ -11567,6 +11831,9 @@
       <c r="B26">
         <v>90000</v>
       </c>
+      <c r="R26">
+        <v>3600000</v>
+      </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -11583,15 +11850,29 @@
       <c r="A28" t="s">
         <v>697</v>
       </c>
+      <c r="Q28" t="s">
+        <v>211</v>
+      </c>
+      <c r="R28">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Q29" t="s">
+        <v>524</v>
+      </c>
+      <c r="R29">
+        <v>200000</v>
+      </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B30">
         <f>SUM(B2:B29)</f>
-        <v>1933500</v>
+        <v>1805000</v>
       </c>
       <c r="C30">
         <f>SUM(C2:C29)</f>
-        <v>433500</v>
+        <v>283000</v>
       </c>
       <c r="D30">
         <f>SUM(D2:D29)</f>
@@ -11608,6 +11889,28 @@
       <c r="L30">
         <f>SUM(L3:L29)</f>
         <v>73000</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>717</v>
+      </c>
+      <c r="R30">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Q31" t="s">
+        <v>522</v>
+      </c>
+      <c r="R31">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Q32" t="s">
+        <v>719</v>
+      </c>
+      <c r="R32">
+        <v>150000</v>
       </c>
     </row>
   </sheetData>
@@ -11707,10 +12010,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11721,7 +12024,7 @@
     <col min="5" max="5" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>146</v>
       </c>
@@ -11756,7 +12059,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44734</v>
       </c>
@@ -11794,7 +12097,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44754</v>
       </c>
@@ -11832,7 +12135,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44761</v>
       </c>
@@ -11870,7 +12173,7 @@
         <v>26500</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44760</v>
       </c>
@@ -11904,14 +12207,11 @@
       <c r="K6" t="s">
         <v>366</v>
       </c>
-      <c r="L6">
-        <v>13360</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I9">
         <f>SUM(I2:I8)</f>
         <v>27</v>
@@ -11922,10 +12222,15 @@
       </c>
       <c r="L9">
         <f>SUM(L2:L8)</f>
-        <v>41510</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>28150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N10" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44783</v>
       </c>
@@ -11960,7 +12265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>676</v>
       </c>
@@ -12001,8 +12306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12156,7 +12461,7 @@
         <v>150000</v>
       </c>
       <c r="D8">
-        <v>150000</v>
+        <v>50000</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -12273,7 +12578,7 @@
         <v>183</v>
       </c>
       <c r="C19">
-        <v>230000</v>
+        <v>310000</v>
       </c>
       <c r="D19">
         <v>200000</v>
@@ -12297,7 +12602,7 @@
         <v>185</v>
       </c>
       <c r="C21">
-        <v>44000</v>
+        <v>22000</v>
       </c>
       <c r="D21">
         <v>17000</v>
@@ -12318,7 +12623,7 @@
         <v>187</v>
       </c>
       <c r="C23">
-        <v>84000</v>
+        <v>42000</v>
       </c>
       <c r="I23" s="9"/>
     </row>
@@ -12380,7 +12685,7 @@
         <v>206</v>
       </c>
       <c r="D31">
-        <v>450000</v>
+        <v>290000</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -12400,9 +12705,6 @@
       <c r="A34" t="s">
         <v>94</v>
       </c>
-      <c r="D34">
-        <v>70000</v>
-      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
@@ -12490,11 +12792,11 @@
       </c>
       <c r="C50">
         <f>SUM(C2:C47)</f>
-        <v>3406000</v>
+        <v>3422000</v>
       </c>
       <c r="D50" s="9">
         <f>SUM(D3:D47)</f>
-        <v>13237000</v>
+        <v>12907000</v>
       </c>
       <c r="E50">
         <f>SUM(E3:E47)</f>
@@ -12502,7 +12804,7 @@
       </c>
       <c r="G50" s="9">
         <f>C50+D50+E50+F50</f>
-        <v>22143000</v>
+        <v>21829000</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -13094,7 +13396,7 @@
   <dimension ref="A6:R130"/>
   <sheetViews>
     <sheetView topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="I126" sqref="I126"/>
+      <selection activeCell="N112" sqref="N112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14372,12 +14674,12 @@
         <v>1293141</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>531</v>
       </c>
@@ -14394,7 +14696,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>533</v>
       </c>
@@ -14411,7 +14713,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>540</v>
       </c>
@@ -14428,7 +14730,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>546</v>
       </c>
@@ -14445,7 +14747,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>551</v>
       </c>
@@ -14462,7 +14764,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>552</v>
       </c>
@@ -14479,7 +14781,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
         <v>506</v>
       </c>
@@ -14496,7 +14798,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C106" t="s">
         <v>639</v>
       </c>
@@ -14513,7 +14815,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C107" t="s">
         <v>640</v>
       </c>
@@ -14530,7 +14832,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C108" t="s">
         <v>644</v>
       </c>
@@ -14546,16 +14848,31 @@
       <c r="H108" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="N108">
+        <v>6700000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E109">
         <f>SUM(E98:E108)</f>
         <v>4223918</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="N109">
+        <v>5200000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N110">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>647</v>
+      </c>
+      <c r="N112">
+        <f>SUM(N107:N111)</f>
+        <v>13900000</v>
       </c>
     </row>
     <row r="113" spans="3:15" x14ac:dyDescent="0.3">

--- a/FORWARDING BOOKING (Autosaved).xlsx
+++ b/FORWARDING BOOKING (Autosaved).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="13764" windowHeight="6924" tabRatio="671" firstSheet="19" activeTab="17"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="13764" windowHeight="6924" tabRatio="671" firstSheet="12" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="OCTOBER BOOKING" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3447" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3507" uniqueCount="728">
   <si>
     <t>SHIPPER</t>
   </si>
@@ -2192,9 +2192,6 @@
     <t>MCR</t>
   </si>
   <si>
-    <t xml:space="preserve">SGR </t>
-  </si>
-  <si>
     <t>KALIM</t>
   </si>
   <si>
@@ -2205,6 +2202,30 @@
   </si>
   <si>
     <t>Sanjay</t>
+  </si>
+  <si>
+    <t>HAFANZ</t>
+  </si>
+  <si>
+    <t>TUT CHN</t>
+  </si>
+  <si>
+    <t>SK DIES</t>
+  </si>
+  <si>
+    <t>AUDI</t>
+  </si>
+  <si>
+    <t>RAM CHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JEBEL ALI </t>
+  </si>
+  <si>
+    <t>SCL</t>
+  </si>
+  <si>
+    <t>MSK CAS</t>
   </si>
 </sst>
 </file>
@@ -9362,8 +9383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V64"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9372,7 +9393,8 @@
     <col min="2" max="2" width="10.77734375" customWidth="1"/>
     <col min="3" max="3" width="10.109375" customWidth="1"/>
     <col min="4" max="4" width="10.21875" customWidth="1"/>
-    <col min="17" max="17" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.77734375" customWidth="1"/>
+    <col min="17" max="17" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -11027,8 +11049,14 @@
       <c r="L48">
         <v>40</v>
       </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="P48" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>412</v>
       </c>
@@ -11059,8 +11087,14 @@
       <c r="L49">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="P49" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q49">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>208</v>
       </c>
@@ -11091,8 +11125,14 @@
       <c r="L50">
         <v>136</v>
       </c>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="P50" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>708</v>
       </c>
@@ -11109,22 +11149,28 @@
         <v>3</v>
       </c>
       <c r="G51">
-        <v>4485</v>
+        <v>4085</v>
       </c>
       <c r="H51">
         <v>4650</v>
       </c>
       <c r="I51">
-        <v>165</v>
+        <v>565</v>
       </c>
       <c r="J51">
         <v>13950</v>
       </c>
       <c r="L51">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
+        <v>1695</v>
+      </c>
+      <c r="P51" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>432</v>
       </c>
@@ -11155,19 +11201,80 @@
       <c r="L52">
         <v>380</v>
       </c>
-    </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="P52" t="s">
+        <v>725</v>
+      </c>
+      <c r="Q52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>126</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" t="s">
+        <v>83</v>
+      </c>
+      <c r="E53" t="s">
+        <v>442</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>500</v>
+      </c>
+      <c r="H53">
+        <v>530</v>
+      </c>
+      <c r="I53">
+        <v>30</v>
+      </c>
+      <c r="J53">
+        <v>530</v>
+      </c>
+      <c r="L53">
+        <v>30</v>
+      </c>
+      <c r="P53" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P54" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P56" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q56">
+        <f>SUM(Q46:Q55)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F64">
         <f>SUM(F2:F63)</f>
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J64">
         <f>SUM(J2:J63)</f>
-        <v>371803</v>
+        <v>372333</v>
       </c>
       <c r="L64">
         <f>SUM(L2:L63)</f>
-        <v>31874</v>
+        <v>33104</v>
       </c>
     </row>
   </sheetData>
@@ -11177,14 +11284,243 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J1" t="s">
+        <v>302</v>
+      </c>
+      <c r="K1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>44805</v>
+      </c>
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>1690</v>
+      </c>
+      <c r="H3">
+        <v>1850</v>
+      </c>
+      <c r="I3">
+        <v>160</v>
+      </c>
+      <c r="J3">
+        <v>9250</v>
+      </c>
+      <c r="L3">
+        <v>800</v>
+      </c>
+      <c r="O3" t="s">
+        <v>54</v>
+      </c>
+      <c r="P3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>1500</v>
+      </c>
+      <c r="H4">
+        <v>1640</v>
+      </c>
+      <c r="I4">
+        <v>140</v>
+      </c>
+      <c r="J4">
+        <v>3280</v>
+      </c>
+      <c r="L4">
+        <v>280</v>
+      </c>
+      <c r="O4" t="s">
+        <v>720</v>
+      </c>
+      <c r="P4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>1475</v>
+      </c>
+      <c r="H5">
+        <v>1630</v>
+      </c>
+      <c r="I5">
+        <v>155</v>
+      </c>
+      <c r="J5">
+        <v>16300</v>
+      </c>
+      <c r="L5">
+        <v>1550</v>
+      </c>
+      <c r="O5" t="s">
+        <v>720</v>
+      </c>
+      <c r="P5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>1500</v>
+      </c>
+      <c r="H6">
+        <v>1590</v>
+      </c>
+      <c r="I6">
+        <v>90</v>
+      </c>
+      <c r="J6">
+        <v>3200</v>
+      </c>
+      <c r="L6">
+        <v>180</v>
+      </c>
+      <c r="O6" t="s">
+        <v>721</v>
+      </c>
+      <c r="P6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>1500</v>
+      </c>
+      <c r="H7">
+        <v>1680</v>
+      </c>
+      <c r="I7">
+        <v>180</v>
+      </c>
+      <c r="J7">
+        <v>3380</v>
+      </c>
+      <c r="L7">
+        <v>360</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11312,8 +11648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11326,7 +11662,7 @@
     <col min="14" max="14" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>354</v>
       </c>
@@ -11354,8 +11690,11 @@
       <c r="J1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>272</v>
       </c>
@@ -11365,8 +11704,11 @@
       <c r="M2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q2" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -11374,8 +11716,11 @@
         <v>435</v>
       </c>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>128</v>
       </c>
@@ -11387,8 +11732,14 @@
       </c>
       <c r="M4" s="1"/>
       <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q4" t="s">
+        <v>722</v>
+      </c>
+      <c r="S4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>446</v>
       </c>
@@ -11408,11 +11759,11 @@
       <c r="Q5" t="s">
         <v>709</v>
       </c>
-      <c r="R5">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>73</v>
       </c>
@@ -11426,11 +11777,11 @@
       <c r="Q6" t="s">
         <v>391</v>
       </c>
-      <c r="R6">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>698</v>
       </c>
@@ -11447,7 +11798,7 @@
         <v>78000</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>304</v>
       </c>
@@ -11473,7 +11824,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>365</v>
       </c>
@@ -11496,7 +11847,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>433</v>
       </c>
@@ -11512,11 +11863,11 @@
       <c r="Q10" t="s">
         <v>713</v>
       </c>
-      <c r="R10">
-        <v>79800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S10" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>434</v>
       </c>
@@ -11542,7 +11893,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>144</v>
       </c>
@@ -11560,7 +11911,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>217</v>
       </c>
@@ -11586,7 +11937,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>439</v>
       </c>
@@ -11602,7 +11953,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>352</v>
       </c>
@@ -11612,13 +11963,13 @@
       <c r="M15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" t="s">
-        <v>718</v>
-      </c>
-      <c r="R15">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+        <v>717</v>
+      </c>
+      <c r="S15" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>699</v>
       </c>
@@ -11636,9 +11987,11 @@
         <v>11500</v>
       </c>
       <c r="P16" s="1"/>
-      <c r="R16">
-        <f>SUM(R3:R15)</f>
-        <v>927800</v>
+      <c r="Q16" t="s">
+        <v>726</v>
+      </c>
+      <c r="S16" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
@@ -11656,6 +12009,12 @@
         <v>6000</v>
       </c>
       <c r="P17" s="1"/>
+      <c r="Q17" t="s">
+        <v>727</v>
+      </c>
+      <c r="R17">
+        <v>250000</v>
+      </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -11711,12 +12070,6 @@
       </c>
       <c r="M20" s="1"/>
       <c r="P20" s="1"/>
-      <c r="Q20" t="s">
-        <v>635</v>
-      </c>
-      <c r="R20">
-        <v>1250000</v>
-      </c>
       <c r="V20" t="s">
         <v>274</v>
       </c>
@@ -11735,12 +12088,6 @@
         <v>850000</v>
       </c>
       <c r="M21" s="1"/>
-      <c r="Q21" t="s">
-        <v>604</v>
-      </c>
-      <c r="R21">
-        <v>850000</v>
-      </c>
       <c r="V21" t="s">
         <v>337</v>
       </c>
@@ -11762,12 +12109,6 @@
         <v>353</v>
       </c>
       <c r="M22" s="1"/>
-      <c r="Q22" t="s">
-        <v>716</v>
-      </c>
-      <c r="R22">
-        <v>400000</v>
-      </c>
       <c r="V22" t="s">
         <v>357</v>
       </c>
@@ -11786,12 +12127,6 @@
         <v>140000</v>
       </c>
       <c r="M23" s="1"/>
-      <c r="Q23" t="s">
-        <v>596</v>
-      </c>
-      <c r="R23">
-        <v>1100000</v>
-      </c>
       <c r="V23" t="s">
         <v>216</v>
       </c>
@@ -11832,7 +12167,8 @@
         <v>90000</v>
       </c>
       <c r="R26">
-        <v>3600000</v>
+        <f>SUM(R1:R25)</f>
+        <v>908000</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
@@ -11891,7 +12227,7 @@
         <v>73000</v>
       </c>
       <c r="Q30" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="R30">
         <v>1500000</v>
@@ -11907,7 +12243,7 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="Q32" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="R32">
         <v>150000</v>
@@ -12012,7 +12348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
@@ -12227,7 +12563,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N10" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -12306,8 +12642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12458,12 +12794,16 @@
         <v>173</v>
       </c>
       <c r="C8">
-        <v>150000</v>
+        <v>275000</v>
       </c>
       <c r="D8">
-        <v>50000</v>
+        <v>200000</v>
       </c>
       <c r="E8" s="1"/>
+      <c r="N8">
+        <f>SUM(N2:N7)</f>
+        <v>121195</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -12792,11 +13132,11 @@
       </c>
       <c r="C50">
         <f>SUM(C2:C47)</f>
-        <v>3422000</v>
+        <v>3547000</v>
       </c>
       <c r="D50" s="9">
         <f>SUM(D3:D47)</f>
-        <v>12907000</v>
+        <v>13057000</v>
       </c>
       <c r="E50">
         <f>SUM(E3:E47)</f>
@@ -12804,7 +13144,7 @@
       </c>
       <c r="G50" s="9">
         <f>C50+D50+E50+F50</f>
-        <v>21829000</v>
+        <v>22104000</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -13396,7 +13736,7 @@
   <dimension ref="A6:R130"/>
   <sheetViews>
     <sheetView topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="N112" sqref="N112"/>
+      <selection activeCell="H126" sqref="H126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/FORWARDING BOOKING (Autosaved).xlsx
+++ b/FORWARDING BOOKING (Autosaved).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="13764" windowHeight="6924" tabRatio="671" firstSheet="12" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="13764" windowHeight="6924" tabRatio="671" firstSheet="13" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="OCTOBER BOOKING" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3507" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3705" uniqueCount="761">
   <si>
     <t>SHIPPER</t>
   </si>
@@ -1424,15 +1424,6 @@
     <t>INDIANA</t>
   </si>
   <si>
-    <t>mad</t>
-  </si>
-  <si>
-    <t>mages</t>
-  </si>
-  <si>
-    <t>ULAGA</t>
-  </si>
-  <si>
     <t>BENGHAZI</t>
   </si>
   <si>
@@ -2144,9 +2135,6 @@
     <t>PRABHU TRANS</t>
   </si>
   <si>
-    <t xml:space="preserve">BL THC </t>
-  </si>
-  <si>
     <t>CSL820</t>
   </si>
   <si>
@@ -2171,33 +2159,9 @@
     <t>NIKUL</t>
   </si>
   <si>
-    <t>ECO</t>
-  </si>
-  <si>
-    <t>ANJAY</t>
-  </si>
-  <si>
-    <t>JAMES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRABHU </t>
-  </si>
-  <si>
-    <t>MJ TYR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIND </t>
-  </si>
-  <si>
-    <t>MCR</t>
-  </si>
-  <si>
     <t>KALIM</t>
   </si>
   <si>
-    <t>SKT</t>
-  </si>
-  <si>
     <t>OMST</t>
   </si>
   <si>
@@ -2210,22 +2174,157 @@
     <t>TUT CHN</t>
   </si>
   <si>
-    <t>SK DIES</t>
-  </si>
-  <si>
-    <t>AUDI</t>
-  </si>
-  <si>
-    <t>RAM CHT</t>
-  </si>
-  <si>
     <t xml:space="preserve">JEBEL ALI </t>
   </si>
   <si>
-    <t>SCL</t>
-  </si>
-  <si>
-    <t>MSK CAS</t>
+    <t>RECIVED</t>
+  </si>
+  <si>
+    <t>CSL888</t>
+  </si>
+  <si>
+    <t>CSL887</t>
+  </si>
+  <si>
+    <t>ALGER</t>
+  </si>
+  <si>
+    <t>HAIPHON</t>
+  </si>
+  <si>
+    <t>MSV</t>
+  </si>
+  <si>
+    <t>CSL902</t>
+  </si>
+  <si>
+    <t>CSL901</t>
+  </si>
+  <si>
+    <t>CSL920</t>
+  </si>
+  <si>
+    <t>CSL921</t>
+  </si>
+  <si>
+    <t>SHANTOU</t>
+  </si>
+  <si>
+    <t>14TH VES</t>
+  </si>
+  <si>
+    <t>SIMRA</t>
+  </si>
+  <si>
+    <t>JEBELALI</t>
+  </si>
+  <si>
+    <t>TASNEE</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>AUG KG</t>
+  </si>
+  <si>
+    <t>AUGKGU1</t>
+  </si>
+  <si>
+    <t>AUG KGU2</t>
+  </si>
+  <si>
+    <t>CSL964</t>
+  </si>
+  <si>
+    <t>SEPTEMBER</t>
+  </si>
+  <si>
+    <t>CSL966</t>
+  </si>
+  <si>
+    <t>CSL972</t>
+  </si>
+  <si>
+    <t>MSV GRANITES</t>
+  </si>
+  <si>
+    <t>STAR TRANS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VB</t>
+  </si>
+  <si>
+    <t>MSKU 5679409</t>
+  </si>
+  <si>
+    <t>XINU 1507876</t>
+  </si>
+  <si>
+    <t>MSKU 7843234</t>
+  </si>
+  <si>
+    <t>UETU 2065379</t>
+  </si>
+  <si>
+    <t>MRKU 8383770</t>
+  </si>
+  <si>
+    <t>MRKU9110764</t>
+  </si>
+  <si>
+    <t>SUDU 1553376</t>
+  </si>
+  <si>
+    <t>MRKU 7820010</t>
+  </si>
+  <si>
+    <t>OLD</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>CSL/914</t>
+  </si>
+  <si>
+    <t>MISURUTHA</t>
+  </si>
+  <si>
+    <t>CSL/916</t>
+  </si>
+  <si>
+    <t>CSL/893</t>
+  </si>
+  <si>
+    <t>CSL/894</t>
+  </si>
+  <si>
+    <t>CSL/895</t>
+  </si>
+  <si>
+    <t>CSL/896</t>
+  </si>
+  <si>
+    <t>CSL/867</t>
+  </si>
+  <si>
+    <t>CSL/866</t>
+  </si>
+  <si>
+    <t>BILL AMT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BALANCE </t>
+  </si>
+  <si>
+    <t>CSL/839</t>
+  </si>
+  <si>
+    <t>CSL/991</t>
+  </si>
+  <si>
+    <t>METCO ACCOUNT</t>
   </si>
 </sst>
 </file>
@@ -7648,7 +7747,7 @@
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C36" t="s">
         <v>130</v>
@@ -7689,7 +7788,7 @@
         <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E37" t="s">
         <v>128</v>
@@ -7855,7 +7954,7 @@
         <v>432</v>
       </c>
       <c r="C42" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D42" t="s">
         <v>11</v>
@@ -7957,7 +8056,7 @@
         <v>55</v>
       </c>
       <c r="E45" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F45">
         <v>4</v>
@@ -8067,7 +8166,7 @@
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C49" t="s">
         <v>10</v>
@@ -8105,7 +8204,7 @@
         <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E50" t="s">
         <v>128</v>
@@ -8265,7 +8364,7 @@
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C55" t="s">
         <v>10</v>
@@ -8504,7 +8603,7 @@
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C62" t="s">
         <v>10</v>
@@ -8597,7 +8696,7 @@
         <v>55</v>
       </c>
       <c r="E65" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F65">
         <v>4</v>
@@ -8785,13 +8884,13 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E5" t="s">
         <v>128</v>
@@ -8824,7 +8923,7 @@
         <v>1550</v>
       </c>
       <c r="S5" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -8847,7 +8946,7 @@
         <v>200</v>
       </c>
       <c r="P6" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -8856,7 +8955,7 @@
         <v>1450</v>
       </c>
       <c r="S6" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -8900,7 +8999,7 @@
         <v>1745</v>
       </c>
       <c r="S7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -9028,7 +9127,7 @@
         <v>1745</v>
       </c>
       <c r="S11" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
@@ -9095,7 +9194,7 @@
         <v>70</v>
       </c>
       <c r="P13" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -9104,7 +9203,7 @@
         <v>1424</v>
       </c>
       <c r="S13" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
@@ -9383,8 +9482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="L53" sqref="L53"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9632,7 +9731,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -9696,13 +9795,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E11" t="s">
         <v>128</v>
@@ -9722,13 +9821,13 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E12" t="s">
         <v>128</v>
@@ -9754,7 +9853,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
@@ -9818,13 +9917,13 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E15" t="s">
         <v>128</v>
@@ -9850,13 +9949,13 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="E16" t="s">
         <v>128</v>
@@ -9978,13 +10077,13 @@
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="E20" t="s">
         <v>128</v>
@@ -10048,7 +10147,7 @@
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="E22" t="s">
         <v>128</v>
@@ -10104,24 +10203,24 @@
         <v>200</v>
       </c>
       <c r="Q23" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="R23" t="s">
         <v>166</v>
       </c>
       <c r="S23" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="E24" t="s">
         <v>56</v>
@@ -10186,13 +10285,13 @@
         <v>44698</v>
       </c>
       <c r="T25" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="U25" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="V25" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.3">
@@ -10236,7 +10335,7 @@
         <v>779199</v>
       </c>
       <c r="T26" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.3">
@@ -10247,7 +10346,7 @@
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="E27" t="s">
         <v>128</v>
@@ -10277,12 +10376,12 @@
         <v>389599</v>
       </c>
       <c r="T27" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
@@ -10321,24 +10420,24 @@
         <v>12951</v>
       </c>
       <c r="T28" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="U28" t="s">
+        <v>682</v>
+      </c>
+      <c r="V28" t="s">
         <v>685</v>
-      </c>
-      <c r="V28" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E29" t="s">
         <v>56</v>
@@ -10371,13 +10470,13 @@
         <v>498645</v>
       </c>
       <c r="T29" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="U29" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="V29" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.3">
@@ -10421,7 +10520,7 @@
         <v>1558398</v>
       </c>
       <c r="T30" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.3">
@@ -10432,7 +10531,7 @@
         <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E31" t="s">
         <v>128</v>
@@ -10465,18 +10564,18 @@
         <v>12951</v>
       </c>
       <c r="T31" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C32" t="s">
         <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E32" t="s">
         <v>128</v>
@@ -10541,12 +10640,12 @@
         <v>11800</v>
       </c>
       <c r="T33" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -10751,7 +10850,7 @@
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
@@ -10895,7 +10994,7 @@
         <v>155</v>
       </c>
       <c r="C44" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D44" t="s">
         <v>138</v>
@@ -10956,7 +11055,7 @@
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C46" t="s">
         <v>10</v>
@@ -10994,7 +11093,7 @@
         <v>28</v>
       </c>
       <c r="D47" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="E47" t="s">
         <v>442</v>
@@ -11134,13 +11233,13 @@
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
       </c>
       <c r="D51" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="E51" t="s">
         <v>56</v>
@@ -11202,7 +11301,7 @@
         <v>380</v>
       </c>
       <c r="P52" t="s">
-        <v>725</v>
+        <v>710</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11247,6 +11346,36 @@
       </c>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>412</v>
+      </c>
+      <c r="C54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" t="s">
+        <v>83</v>
+      </c>
+      <c r="E54" t="s">
+        <v>442</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>550</v>
+      </c>
+      <c r="H54">
+        <v>625</v>
+      </c>
+      <c r="I54">
+        <v>75</v>
+      </c>
+      <c r="J54">
+        <v>625</v>
+      </c>
+      <c r="L54">
+        <v>75</v>
+      </c>
       <c r="P54" t="s">
         <v>32</v>
       </c>
@@ -11254,7 +11383,69 @@
         <v>6</v>
       </c>
     </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>412</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" t="s">
+        <v>83</v>
+      </c>
+      <c r="E55" t="s">
+        <v>442</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>500</v>
+      </c>
+      <c r="H55">
+        <v>550</v>
+      </c>
+      <c r="I55">
+        <v>50</v>
+      </c>
+      <c r="J55">
+        <v>550</v>
+      </c>
+      <c r="L55">
+        <v>50</v>
+      </c>
+    </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>412</v>
+      </c>
+      <c r="C56" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" t="s">
+        <v>83</v>
+      </c>
+      <c r="E56" t="s">
+        <v>442</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>550</v>
+      </c>
+      <c r="H56">
+        <v>625</v>
+      </c>
+      <c r="I56">
+        <v>75</v>
+      </c>
+      <c r="J56">
+        <v>625</v>
+      </c>
+      <c r="L56">
+        <v>75</v>
+      </c>
       <c r="P56" t="s">
         <v>302</v>
       </c>
@@ -11263,18 +11454,146 @@
         <v>44</v>
       </c>
     </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>587</v>
+      </c>
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" t="s">
+        <v>702</v>
+      </c>
+      <c r="E57" t="s">
+        <v>458</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <v>950</v>
+      </c>
+      <c r="H57">
+        <v>1075</v>
+      </c>
+      <c r="I57">
+        <v>125</v>
+      </c>
+      <c r="J57">
+        <v>2150</v>
+      </c>
+      <c r="L57">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" t="s">
+        <v>139</v>
+      </c>
+      <c r="E58" t="s">
+        <v>442</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>1500</v>
+      </c>
+      <c r="H58">
+        <v>1700</v>
+      </c>
+      <c r="I58">
+        <v>200</v>
+      </c>
+      <c r="J58">
+        <v>1700</v>
+      </c>
+      <c r="L58">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" t="s">
+        <v>83</v>
+      </c>
+      <c r="E59" t="s">
+        <v>59</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>375</v>
+      </c>
+      <c r="H59">
+        <v>540</v>
+      </c>
+      <c r="I59">
+        <v>165</v>
+      </c>
+      <c r="J59">
+        <v>1080</v>
+      </c>
+      <c r="L59">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" t="s">
+        <v>108</v>
+      </c>
+      <c r="E60" t="s">
+        <v>59</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>325</v>
+      </c>
+      <c r="H60">
+        <v>525</v>
+      </c>
+      <c r="I60">
+        <v>200</v>
+      </c>
+      <c r="J60">
+        <v>525</v>
+      </c>
+      <c r="L60">
+        <v>200</v>
+      </c>
+    </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F64">
         <f>SUM(F2:F63)</f>
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="J64">
         <f>SUM(J2:J63)</f>
-        <v>372333</v>
+        <v>379588</v>
       </c>
       <c r="L64">
         <f>SUM(L2:L63)</f>
-        <v>33104</v>
+        <v>34284</v>
       </c>
     </row>
   </sheetData>
@@ -11284,10 +11603,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11362,7 +11681,10 @@
         <v>9250</v>
       </c>
       <c r="L3">
-        <v>800</v>
+        <v>660</v>
+      </c>
+      <c r="M3">
+        <v>660</v>
       </c>
       <c r="O3" t="s">
         <v>54</v>
@@ -11391,10 +11713,10 @@
         <v>2</v>
       </c>
       <c r="G4">
-        <v>1500</v>
+        <v>1310</v>
       </c>
       <c r="H4">
-        <v>1640</v>
+        <v>1450</v>
       </c>
       <c r="I4">
         <v>140</v>
@@ -11406,7 +11728,7 @@
         <v>280</v>
       </c>
       <c r="O4" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="P4" t="s">
         <v>300</v>
@@ -11429,22 +11751,25 @@
         <v>10</v>
       </c>
       <c r="G5">
-        <v>1475</v>
+        <v>1350</v>
       </c>
       <c r="H5">
-        <v>1630</v>
+        <v>1550</v>
       </c>
       <c r="I5">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="J5">
         <v>16300</v>
       </c>
       <c r="L5">
-        <v>1550</v>
+        <v>2000</v>
+      </c>
+      <c r="M5">
+        <v>2000</v>
       </c>
       <c r="O5" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="P5" t="s">
         <v>385</v>
@@ -11467,22 +11792,25 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>1500</v>
+        <v>1310</v>
       </c>
       <c r="H6">
         <v>1590</v>
       </c>
       <c r="I6">
-        <v>90</v>
+        <v>280</v>
       </c>
       <c r="J6">
         <v>3200</v>
       </c>
       <c r="L6">
-        <v>180</v>
+        <v>560</v>
+      </c>
+      <c r="M6">
+        <v>560</v>
       </c>
       <c r="O6" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="P6" t="s">
         <v>23</v>
@@ -11505,19 +11833,1086 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <v>1500</v>
+        <v>1365</v>
       </c>
       <c r="H7">
-        <v>1680</v>
+        <v>1650</v>
       </c>
       <c r="I7">
-        <v>180</v>
+        <v>285</v>
       </c>
       <c r="J7">
         <v>3380</v>
       </c>
       <c r="L7">
-        <v>360</v>
+        <v>570</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>605</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1680</v>
+      </c>
+      <c r="H8">
+        <v>1860</v>
+      </c>
+      <c r="I8">
+        <v>180</v>
+      </c>
+      <c r="J8">
+        <v>1860</v>
+      </c>
+      <c r="L8">
+        <v>180</v>
+      </c>
+      <c r="M8">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>361</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>1310</v>
+      </c>
+      <c r="H9">
+        <v>1425</v>
+      </c>
+      <c r="I9">
+        <v>115</v>
+      </c>
+      <c r="J9">
+        <v>10000</v>
+      </c>
+      <c r="L9">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>465</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>1310</v>
+      </c>
+      <c r="H10">
+        <v>1450</v>
+      </c>
+      <c r="I10">
+        <v>140</v>
+      </c>
+      <c r="J10">
+        <v>2900</v>
+      </c>
+      <c r="L10">
+        <v>280</v>
+      </c>
+      <c r="M10">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>1490</v>
+      </c>
+      <c r="H11">
+        <v>1550</v>
+      </c>
+      <c r="I11">
+        <v>60</v>
+      </c>
+      <c r="J11">
+        <v>3100</v>
+      </c>
+      <c r="L11">
+        <v>120</v>
+      </c>
+      <c r="M11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1310</v>
+      </c>
+      <c r="H12">
+        <v>1450</v>
+      </c>
+      <c r="I12">
+        <v>140</v>
+      </c>
+      <c r="J12">
+        <v>1450</v>
+      </c>
+      <c r="L12">
+        <v>140</v>
+      </c>
+      <c r="M12">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>366</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>714</v>
+      </c>
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>4085</v>
+      </c>
+      <c r="H13">
+        <v>4220</v>
+      </c>
+      <c r="I13">
+        <v>135</v>
+      </c>
+      <c r="J13">
+        <v>16880</v>
+      </c>
+      <c r="L13">
+        <v>540</v>
+      </c>
+      <c r="M13">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>325</v>
+      </c>
+      <c r="H14">
+        <v>700</v>
+      </c>
+      <c r="I14">
+        <v>375</v>
+      </c>
+      <c r="J14">
+        <v>700</v>
+      </c>
+      <c r="L14">
+        <v>375</v>
+      </c>
+      <c r="M14">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>715</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>375</v>
+      </c>
+      <c r="H15">
+        <v>580</v>
+      </c>
+      <c r="I15">
+        <v>205</v>
+      </c>
+      <c r="J15">
+        <v>1160</v>
+      </c>
+      <c r="L15">
+        <v>410</v>
+      </c>
+      <c r="M15">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>431</v>
+      </c>
+      <c r="E16" t="s">
+        <v>458</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1610</v>
+      </c>
+      <c r="H16">
+        <v>1880</v>
+      </c>
+      <c r="I16">
+        <v>270</v>
+      </c>
+      <c r="J16">
+        <v>1880</v>
+      </c>
+      <c r="L16">
+        <v>270</v>
+      </c>
+      <c r="M16">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>716</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" t="s">
+        <v>413</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>290</v>
+      </c>
+      <c r="H17">
+        <v>400</v>
+      </c>
+      <c r="I17">
+        <v>110</v>
+      </c>
+      <c r="J17">
+        <v>800</v>
+      </c>
+      <c r="L17">
+        <v>220</v>
+      </c>
+      <c r="M17">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" t="s">
+        <v>413</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>340</v>
+      </c>
+      <c r="H18">
+        <v>375</v>
+      </c>
+      <c r="I18">
+        <v>35</v>
+      </c>
+      <c r="J18">
+        <v>750</v>
+      </c>
+      <c r="L18">
+        <v>70</v>
+      </c>
+      <c r="M18">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>412</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" t="s">
+        <v>442</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>475</v>
+      </c>
+      <c r="H20">
+        <v>550</v>
+      </c>
+      <c r="I20">
+        <v>75</v>
+      </c>
+      <c r="J20">
+        <v>550</v>
+      </c>
+      <c r="L20">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>412</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" t="s">
+        <v>442</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>540</v>
+      </c>
+      <c r="H21">
+        <v>625</v>
+      </c>
+      <c r="I21">
+        <v>85</v>
+      </c>
+      <c r="J21">
+        <v>625</v>
+      </c>
+      <c r="L21">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" t="s">
+        <v>442</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>475</v>
+      </c>
+      <c r="H22">
+        <v>540</v>
+      </c>
+      <c r="I22">
+        <v>65</v>
+      </c>
+      <c r="J22">
+        <v>525</v>
+      </c>
+      <c r="L22">
+        <v>50</v>
+      </c>
+      <c r="M22">
+        <v>50</v>
+      </c>
+      <c r="O22">
+        <v>41143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>427</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>721</v>
+      </c>
+      <c r="E23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <v>325</v>
+      </c>
+      <c r="H23">
+        <v>450</v>
+      </c>
+      <c r="I23">
+        <v>125</v>
+      </c>
+      <c r="J23">
+        <v>4500</v>
+      </c>
+      <c r="L23">
+        <v>1250</v>
+      </c>
+      <c r="M23">
+        <v>1250</v>
+      </c>
+      <c r="O23">
+        <v>7370</v>
+      </c>
+      <c r="P23">
+        <v>5687</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>722</v>
+      </c>
+      <c r="B24" t="s">
+        <v>465</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>1310</v>
+      </c>
+      <c r="H24">
+        <v>1435</v>
+      </c>
+      <c r="I24">
+        <v>125</v>
+      </c>
+      <c r="J24">
+        <v>2870</v>
+      </c>
+      <c r="L24">
+        <v>250</v>
+      </c>
+      <c r="M24">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>605</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>300</v>
+      </c>
+      <c r="E25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25">
+        <v>1400</v>
+      </c>
+      <c r="H25">
+        <v>1500</v>
+      </c>
+      <c r="I25">
+        <v>100</v>
+      </c>
+      <c r="J25">
+        <v>7500</v>
+      </c>
+      <c r="L25">
+        <v>500</v>
+      </c>
+      <c r="M25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>723</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" t="s">
+        <v>128</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1450</v>
+      </c>
+      <c r="H26">
+        <v>1550</v>
+      </c>
+      <c r="I26">
+        <v>100</v>
+      </c>
+      <c r="J26">
+        <v>1550</v>
+      </c>
+      <c r="L26">
+        <v>100</v>
+      </c>
+      <c r="M26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>320</v>
+      </c>
+      <c r="H27">
+        <v>525</v>
+      </c>
+      <c r="I27">
+        <v>200</v>
+      </c>
+      <c r="J27">
+        <v>525</v>
+      </c>
+      <c r="L27">
+        <v>200</v>
+      </c>
+      <c r="M27">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>715</v>
+      </c>
+      <c r="E28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>400</v>
+      </c>
+      <c r="H28">
+        <v>575</v>
+      </c>
+      <c r="I28">
+        <v>175</v>
+      </c>
+      <c r="J28">
+        <v>575</v>
+      </c>
+      <c r="L28">
+        <v>175</v>
+      </c>
+      <c r="M28">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>165</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>724</v>
+      </c>
+      <c r="E29" t="s">
+        <v>725</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>910</v>
+      </c>
+      <c r="H29">
+        <v>1075</v>
+      </c>
+      <c r="I29">
+        <v>165</v>
+      </c>
+      <c r="J29">
+        <v>1075</v>
+      </c>
+      <c r="L29">
+        <v>165</v>
+      </c>
+      <c r="M29">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>412</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>320</v>
+      </c>
+      <c r="H30">
+        <v>500</v>
+      </c>
+      <c r="I30">
+        <v>180</v>
+      </c>
+      <c r="J30">
+        <v>500</v>
+      </c>
+      <c r="L30">
+        <v>180</v>
+      </c>
+      <c r="M30">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>307</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>320</v>
+      </c>
+      <c r="H31">
+        <v>700</v>
+      </c>
+      <c r="I31">
+        <v>380</v>
+      </c>
+      <c r="J31">
+        <v>700</v>
+      </c>
+      <c r="L31">
+        <v>380</v>
+      </c>
+      <c r="M31">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>320</v>
+      </c>
+      <c r="H32">
+        <v>525</v>
+      </c>
+      <c r="I32">
+        <v>205</v>
+      </c>
+      <c r="J32">
+        <v>525</v>
+      </c>
+      <c r="L32">
+        <v>205</v>
+      </c>
+      <c r="M32">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>465</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>133</v>
+      </c>
+      <c r="E33" t="s">
+        <v>128</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1350</v>
+      </c>
+      <c r="H33">
+        <v>1425</v>
+      </c>
+      <c r="I33">
+        <v>75</v>
+      </c>
+      <c r="J33">
+        <v>1425</v>
+      </c>
+      <c r="L33">
+        <v>75</v>
+      </c>
+      <c r="M33">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>605</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
+        <v>128</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>1350</v>
+      </c>
+      <c r="H34">
+        <v>1450</v>
+      </c>
+      <c r="I34">
+        <v>100</v>
+      </c>
+      <c r="J34">
+        <v>2900</v>
+      </c>
+      <c r="L34">
+        <v>200</v>
+      </c>
+      <c r="M34">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>133</v>
+      </c>
+      <c r="E35" t="s">
+        <v>128</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>1350</v>
+      </c>
+      <c r="H35">
+        <v>1450</v>
+      </c>
+      <c r="I35">
+        <v>100</v>
+      </c>
+      <c r="J35">
+        <v>2900</v>
+      </c>
+      <c r="L35">
+        <v>200</v>
+      </c>
+      <c r="M35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>465</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>133</v>
+      </c>
+      <c r="E36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36">
+        <v>1350</v>
+      </c>
+      <c r="H36">
+        <v>1425</v>
+      </c>
+      <c r="I36">
+        <v>75</v>
+      </c>
+      <c r="J36">
+        <v>7125</v>
+      </c>
+      <c r="L36">
+        <v>375</v>
+      </c>
+      <c r="M36">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>432</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s">
+        <v>128</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1450</v>
+      </c>
+      <c r="H37">
+        <v>1525</v>
+      </c>
+      <c r="I37">
+        <v>75</v>
+      </c>
+      <c r="J37">
+        <v>1525</v>
+      </c>
+      <c r="L37">
+        <v>75</v>
+      </c>
+      <c r="M37">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>385</v>
+      </c>
+      <c r="E38" t="s">
+        <v>128</v>
+      </c>
+      <c r="F38">
+        <v>8</v>
+      </c>
+      <c r="G38">
+        <v>1610</v>
+      </c>
+      <c r="H38">
+        <v>1800</v>
+      </c>
+      <c r="I38">
+        <v>190</v>
+      </c>
+      <c r="J38">
+        <v>14400</v>
+      </c>
+      <c r="L38">
+        <v>1520</v>
+      </c>
+      <c r="M38">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F44">
+        <f>SUM(F2:F43)</f>
+        <v>92</v>
+      </c>
+      <c r="L44">
+        <f>SUM(L2:L43)</f>
+        <v>13555</v>
+      </c>
+      <c r="M44">
+        <f>SUM(M2:M43)</f>
+        <v>11490</v>
       </c>
     </row>
   </sheetData>
@@ -11611,7 +13006,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F6" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H6">
         <v>2000</v>
@@ -11648,8 +13043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11662,7 +13057,7 @@
     <col min="14" max="14" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>354</v>
       </c>
@@ -11690,11 +13085,8 @@
       <c r="J1" t="s">
         <v>355</v>
       </c>
-      <c r="Q1" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>272</v>
       </c>
@@ -11704,101 +13096,115 @@
       <c r="M2" t="s">
         <v>272</v>
       </c>
-      <c r="Q2" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>435</v>
       </c>
+      <c r="E3" s="1">
+        <v>44796</v>
+      </c>
+      <c r="F3">
+        <v>8000</v>
+      </c>
+      <c r="G3">
+        <v>5895</v>
+      </c>
       <c r="M3" s="1"/>
-      <c r="Q3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>128</v>
       </c>
       <c r="B4">
         <v>150000</v>
       </c>
-      <c r="J4" t="s">
-        <v>320</v>
-      </c>
-      <c r="M4" s="1"/>
+      <c r="E4" s="1">
+        <v>44797</v>
+      </c>
+      <c r="F4">
+        <v>6000</v>
+      </c>
+      <c r="G4">
+        <v>6457</v>
+      </c>
+      <c r="M4" s="1">
+        <v>44814</v>
+      </c>
+      <c r="O4">
+        <v>150000</v>
+      </c>
       <c r="P4" s="1"/>
-      <c r="Q4" t="s">
-        <v>722</v>
-      </c>
-      <c r="S4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>446</v>
       </c>
       <c r="B5">
         <v>850000</v>
       </c>
-      <c r="J5" t="s">
-        <v>208</v>
+      <c r="E5" s="1">
+        <v>44799</v>
+      </c>
+      <c r="F5">
+        <v>4000</v>
+      </c>
+      <c r="G5">
+        <v>6463</v>
       </c>
       <c r="M5" s="1">
-        <v>44778</v>
-      </c>
-      <c r="O5">
-        <v>96000</v>
+        <v>44817</v>
+      </c>
+      <c r="N5">
+        <v>94500</v>
       </c>
       <c r="P5" s="1"/>
-      <c r="Q5" t="s">
-        <v>709</v>
-      </c>
-      <c r="S5" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>73</v>
       </c>
+      <c r="E6" s="1">
+        <v>44799</v>
+      </c>
+      <c r="F6">
+        <v>4000</v>
+      </c>
+      <c r="G6">
+        <v>7255</v>
+      </c>
       <c r="M6" s="1">
-        <v>44783</v>
-      </c>
-      <c r="O6">
-        <v>112000</v>
+        <v>44821</v>
+      </c>
+      <c r="N6">
+        <v>98000</v>
       </c>
       <c r="P6" s="1"/>
-      <c r="Q6" t="s">
-        <v>391</v>
-      </c>
-      <c r="S6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>698</v>
+        <v>695</v>
+      </c>
+      <c r="E7" s="1">
+        <v>44800</v>
+      </c>
+      <c r="F7">
+        <v>4000</v>
+      </c>
+      <c r="G7">
+        <v>7444</v>
       </c>
       <c r="M7" s="1">
-        <v>44786</v>
-      </c>
-      <c r="O7">
+        <v>44825</v>
+      </c>
+      <c r="N7">
         <v>116000</v>
       </c>
-      <c r="Q7" t="s">
-        <v>710</v>
-      </c>
-      <c r="R7">
-        <v>78000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>304</v>
       </c>
@@ -11808,136 +13214,82 @@
       <c r="C8">
         <v>100000</v>
       </c>
-      <c r="J8" t="s">
-        <v>191</v>
-      </c>
       <c r="M8" s="1">
-        <v>44791</v>
-      </c>
-      <c r="O8">
-        <v>128500</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>711</v>
-      </c>
-      <c r="R8">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+        <v>44830</v>
+      </c>
+      <c r="N8">
+        <v>122000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>365</v>
       </c>
       <c r="B9">
         <v>60000</v>
       </c>
-      <c r="J9" t="s">
-        <v>163</v>
-      </c>
       <c r="M9" s="1">
-        <v>44797</v>
+        <v>44832</v>
       </c>
       <c r="N9">
-        <v>97500</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>712</v>
-      </c>
-      <c r="R9">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+        <v>112000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>433</v>
       </c>
-      <c r="J10" t="s">
-        <v>54</v>
-      </c>
       <c r="M10" s="1">
-        <v>44803</v>
+        <v>44834</v>
       </c>
       <c r="N10">
-        <v>150000</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>713</v>
-      </c>
-      <c r="S10" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+        <v>96500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>434</v>
       </c>
-      <c r="J11" t="s">
-        <v>48</v>
-      </c>
-      <c r="K11" t="s">
-        <v>460</v>
-      </c>
       <c r="L11">
         <v>19000</v>
       </c>
       <c r="M11" s="1">
-        <v>44814</v>
+        <v>44839</v>
       </c>
       <c r="N11">
-        <v>150000</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>217</v>
-      </c>
-      <c r="R11">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>144</v>
       </c>
-      <c r="K12" t="s">
-        <v>461</v>
-      </c>
       <c r="L12">
         <v>19000</v>
       </c>
-      <c r="M12" s="1"/>
-      <c r="Q12" t="s">
-        <v>714</v>
-      </c>
-      <c r="R12">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M12" s="1">
+        <v>44845</v>
+      </c>
+      <c r="N12">
+        <v>112000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>217</v>
       </c>
-      <c r="J13" t="s">
-        <v>132</v>
-      </c>
-      <c r="K13" t="s">
-        <v>462</v>
-      </c>
       <c r="L13">
         <v>35000</v>
       </c>
-      <c r="M13" s="1"/>
+      <c r="M13" s="1">
+        <v>44849</v>
+      </c>
       <c r="N13">
-        <f>SUM(N3:N12)</f>
-        <v>397500</v>
+        <v>94000</v>
       </c>
       <c r="P13" s="1"/>
-      <c r="Q13" t="s">
-        <v>715</v>
-      </c>
-      <c r="R13">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>439</v>
       </c>
@@ -11946,14 +13298,8 @@
       </c>
       <c r="M14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="Q14" t="s">
-        <v>28</v>
-      </c>
-      <c r="R14">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>352</v>
       </c>
@@ -11962,16 +13308,10 @@
       </c>
       <c r="M15" s="1"/>
       <c r="P15" s="1"/>
-      <c r="Q15" t="s">
-        <v>717</v>
-      </c>
-      <c r="S15" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B16">
         <v>30000</v>
@@ -11981,55 +13321,23 @@
       </c>
       <c r="M16" s="1"/>
       <c r="N16">
-        <v>7882</v>
-      </c>
-      <c r="O16">
-        <v>11500</v>
+        <f>SUM(N3:N15)</f>
+        <v>950000</v>
       </c>
       <c r="P16" s="1"/>
-      <c r="Q16" t="s">
-        <v>726</v>
-      </c>
-      <c r="S16" t="s">
-        <v>273</v>
-      </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>164</v>
       </c>
-      <c r="K17">
-        <v>623294</v>
-      </c>
       <c r="M17" s="1"/>
-      <c r="N17">
-        <v>7211</v>
-      </c>
-      <c r="O17">
-        <v>6000</v>
-      </c>
       <c r="P17" s="1"/>
-      <c r="Q17" t="s">
-        <v>727</v>
-      </c>
-      <c r="R17">
-        <v>250000</v>
-      </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>400</v>
       </c>
-      <c r="K18">
-        <v>124658</v>
-      </c>
       <c r="M18" s="1"/>
-      <c r="N18">
-        <v>1777</v>
-      </c>
-      <c r="O18">
-        <v>6000</v>
-      </c>
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
@@ -12039,16 +13347,10 @@
       <c r="B19">
         <v>60000</v>
       </c>
-      <c r="K19">
-        <v>498645</v>
+      <c r="G19" t="s">
+        <v>736</v>
       </c>
       <c r="M19" s="1"/>
-      <c r="N19">
-        <v>7255</v>
-      </c>
-      <c r="O19">
-        <v>6000</v>
-      </c>
       <c r="P19" s="1"/>
       <c r="V19" t="s">
         <v>336</v>
@@ -12060,13 +13362,6 @@
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>415</v>
-      </c>
-      <c r="J20" t="s">
-        <v>385</v>
-      </c>
-      <c r="K20">
-        <f>SUM(K16:K19)</f>
-        <v>1246597</v>
       </c>
       <c r="M20" s="1"/>
       <c r="P20" s="1"/>
@@ -12081,12 +13376,6 @@
       <c r="A21" t="s">
         <v>376</v>
       </c>
-      <c r="J21" t="s">
-        <v>32</v>
-      </c>
-      <c r="K21">
-        <v>850000</v>
-      </c>
       <c r="M21" s="1"/>
       <c r="V21" t="s">
         <v>337</v>
@@ -12099,12 +13388,6 @@
       <c r="A22" t="s">
         <v>392</v>
       </c>
-      <c r="J22" t="s">
-        <v>32</v>
-      </c>
-      <c r="K22">
-        <v>850000</v>
-      </c>
       <c r="L22" t="s">
         <v>353</v>
       </c>
@@ -12120,13 +13403,6 @@
       <c r="A23" t="s">
         <v>403</v>
       </c>
-      <c r="J23" t="s">
-        <v>700</v>
-      </c>
-      <c r="K23">
-        <v>140000</v>
-      </c>
-      <c r="M23" s="1"/>
       <c r="V23" t="s">
         <v>216</v>
       </c>
@@ -12168,12 +13444,12 @@
       </c>
       <c r="R26">
         <f>SUM(R1:R25)</f>
-        <v>908000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B27">
         <v>75000</v>
@@ -12184,7 +13460,7 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="Q28" t="s">
         <v>211</v>
@@ -12195,7 +13471,7 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="Q29" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="R29">
         <v>200000</v>
@@ -12220,14 +13496,14 @@
       </c>
       <c r="K30">
         <f>SUM(K3:K29)</f>
-        <v>4333194</v>
+        <v>0</v>
       </c>
       <c r="L30">
         <f>SUM(L3:L29)</f>
         <v>73000</v>
       </c>
       <c r="Q30" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
       <c r="R30">
         <v>1500000</v>
@@ -12235,7 +13511,7 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="Q31" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="R31">
         <v>500000</v>
@@ -12243,7 +13519,7 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="Q32" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="R32">
         <v>150000</v>
@@ -12349,7 +13625,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12368,13 +13644,13 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F1" t="s">
         <v>149</v>
@@ -12392,7 +13668,7 @@
         <v>4</v>
       </c>
       <c r="K1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -12403,7 +13679,7 @@
         <v>364</v>
       </c>
       <c r="C3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -12431,6 +13707,12 @@
       </c>
       <c r="L3">
         <v>250</v>
+      </c>
+      <c r="M3" t="s">
+        <v>711</v>
+      </c>
+      <c r="N3" s="1">
+        <v>44796</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -12438,13 +13720,13 @@
         <v>44754</v>
       </c>
       <c r="B4" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C4" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D4" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E4" t="s">
         <v>35</v>
@@ -12469,6 +13751,12 @@
       </c>
       <c r="L4">
         <v>1400</v>
+      </c>
+      <c r="M4" t="s">
+        <v>711</v>
+      </c>
+      <c r="N4" s="1">
+        <v>44796</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -12476,16 +13764,16 @@
         <v>44761</v>
       </c>
       <c r="B5" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C5" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D5" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E5" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F5">
         <v>5000</v>
@@ -12507,6 +13795,12 @@
       </c>
       <c r="L5">
         <v>26500</v>
+      </c>
+      <c r="M5" t="s">
+        <v>711</v>
+      </c>
+      <c r="N5" s="1">
+        <v>44796</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -12514,13 +13808,13 @@
         <v>44760</v>
       </c>
       <c r="B6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C6" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D6" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E6" t="s">
         <v>35</v>
@@ -12563,7 +13857,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N10" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -12571,10 +13865,10 @@
         <v>44783</v>
       </c>
       <c r="B12" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C12" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -12603,13 +13897,13 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C13" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D13" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E13" t="s">
         <v>35</v>
@@ -12642,8 +13936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12676,10 +13970,10 @@
         <v>146</v>
       </c>
       <c r="K1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="L1" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="M1" t="s">
         <v>348</v>
@@ -12693,7 +13987,7 @@
         <v>82</v>
       </c>
       <c r="D3" s="9">
-        <v>6000000</v>
+        <v>5500000</v>
       </c>
       <c r="E3" s="9">
         <v>5500000</v>
@@ -12702,7 +13996,7 @@
         <v>44771</v>
       </c>
       <c r="K3" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="L3">
         <v>30</v>
@@ -12722,7 +14016,7 @@
         <v>44771</v>
       </c>
       <c r="K4" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="L4">
         <v>1200</v>
@@ -12739,13 +14033,13 @@
         <v>170</v>
       </c>
       <c r="D5">
-        <v>650000</v>
+        <v>500000</v>
       </c>
       <c r="J5" s="1">
         <v>44774</v>
       </c>
       <c r="K5" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="L5">
         <v>35</v>
@@ -12762,13 +14056,13 @@
         <v>171</v>
       </c>
       <c r="D6">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="J6" s="1">
         <v>44777</v>
       </c>
       <c r="K6" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="L6">
         <v>1300</v>
@@ -12785,7 +14079,7 @@
         <v>172</v>
       </c>
       <c r="D7">
-        <v>1000000</v>
+        <v>600000</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -12794,10 +14088,10 @@
         <v>173</v>
       </c>
       <c r="C8">
-        <v>275000</v>
+        <v>500000</v>
       </c>
       <c r="D8">
-        <v>200000</v>
+        <v>350000</v>
       </c>
       <c r="E8" s="1"/>
       <c r="N8">
@@ -12809,9 +14103,6 @@
       <c r="A9" t="s">
         <v>84</v>
       </c>
-      <c r="C9">
-        <v>82000</v>
-      </c>
       <c r="D9">
         <v>75000</v>
       </c>
@@ -12825,6 +14116,15 @@
         <v>150000</v>
       </c>
       <c r="E10" s="1"/>
+      <c r="K10" t="s">
+        <v>760</v>
+      </c>
+      <c r="L10" t="s">
+        <v>756</v>
+      </c>
+      <c r="M10" t="s">
+        <v>711</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -12846,12 +14146,30 @@
         <v>100000</v>
       </c>
       <c r="E12" s="1"/>
+      <c r="J12" t="s">
+        <v>747</v>
+      </c>
+      <c r="K12" t="s">
+        <v>748</v>
+      </c>
+      <c r="L12">
+        <v>95832</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>177</v>
       </c>
       <c r="E13" s="1"/>
+      <c r="J13" t="s">
+        <v>749</v>
+      </c>
+      <c r="K13" t="s">
+        <v>748</v>
+      </c>
+      <c r="L13">
+        <v>47916</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -12865,6 +14183,15 @@
       </c>
       <c r="E14" s="1"/>
       <c r="I14" s="9"/>
+      <c r="J14" t="s">
+        <v>750</v>
+      </c>
+      <c r="K14" t="s">
+        <v>748</v>
+      </c>
+      <c r="L14">
+        <v>231872</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -12875,21 +14202,39 @@
       </c>
       <c r="E15" s="1"/>
       <c r="I15" s="9"/>
+      <c r="J15" t="s">
+        <v>751</v>
+      </c>
+      <c r="K15" t="s">
+        <v>748</v>
+      </c>
+      <c r="L15">
+        <v>47916</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>180</v>
       </c>
       <c r="C16">
-        <v>1800000</v>
+        <v>1700000</v>
       </c>
       <c r="D16">
-        <v>550000</v>
+        <v>200000</v>
       </c>
       <c r="E16" s="1"/>
       <c r="I16" s="9"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" t="s">
+        <v>752</v>
+      </c>
+      <c r="K16" t="s">
+        <v>748</v>
+      </c>
+      <c r="L16">
+        <v>47916</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>181</v>
       </c>
@@ -12900,8 +14245,17 @@
         <v>100000</v>
       </c>
       <c r="I17" s="9"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
+        <v>753</v>
+      </c>
+      <c r="K17" t="s">
+        <v>748</v>
+      </c>
+      <c r="L17">
+        <v>49916</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>182</v>
       </c>
@@ -12912,32 +14266,65 @@
         <v>100000</v>
       </c>
       <c r="I18" s="9"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" t="s">
+        <v>754</v>
+      </c>
+      <c r="K18" t="s">
+        <v>748</v>
+      </c>
+      <c r="L18">
+        <v>449916</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>183</v>
       </c>
       <c r="C19">
-        <v>310000</v>
+        <v>350000</v>
       </c>
       <c r="D19">
         <v>200000</v>
       </c>
       <c r="I19" s="9"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19" t="s">
+        <v>755</v>
+      </c>
+      <c r="K19" t="s">
+        <v>748</v>
+      </c>
+      <c r="L19">
+        <v>1782032</v>
+      </c>
+      <c r="M19">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>184</v>
       </c>
       <c r="C20">
-        <v>42000</v>
+        <v>220000</v>
       </c>
       <c r="D20">
-        <v>15000</v>
+        <v>50000</v>
       </c>
       <c r="I20" s="9"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20" t="s">
+        <v>758</v>
+      </c>
+      <c r="K20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20">
+        <v>1340000</v>
+      </c>
+      <c r="M20">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>185</v>
       </c>
@@ -12948,8 +14335,17 @@
         <v>17000</v>
       </c>
       <c r="I21" s="9"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21" t="s">
+        <v>759</v>
+      </c>
+      <c r="K21" t="s">
+        <v>748</v>
+      </c>
+      <c r="L21">
+        <v>191160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>186</v>
       </c>
@@ -12958,24 +14354,31 @@
       </c>
       <c r="I22" s="9"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>187</v>
       </c>
-      <c r="C23">
-        <v>42000</v>
+      <c r="D23">
+        <v>100000</v>
       </c>
       <c r="I23" s="9"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>129</v>
       </c>
       <c r="D24">
         <v>550000</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L24">
+        <f>SUM(L11:L23)</f>
+        <v>4284476</v>
+      </c>
+      <c r="M24">
+        <v>2200000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>188</v>
       </c>
@@ -12983,28 +14386,31 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K26" t="s">
+        <v>757</v>
+      </c>
+      <c r="L26">
+        <v>2084476</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>165</v>
       </c>
-      <c r="C28">
-        <v>550000</v>
-      </c>
       <c r="D28">
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>190</v>
       </c>
@@ -13012,7 +14418,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>191</v>
       </c>
@@ -13020,7 +14426,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>206</v>
       </c>
@@ -13028,12 +14434,12 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>193</v>
       </c>
@@ -13041,102 +14447,125 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D38">
+        <v>285000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="D41">
-        <v>75000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G42">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K42" s="1">
+        <v>44808</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="C43">
-        <v>126000</v>
+        <v>82000</v>
       </c>
       <c r="D43">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>396</v>
       </c>
+      <c r="C45">
+        <v>240000</v>
+      </c>
       <c r="D45">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+        <v>734</v>
+      </c>
+      <c r="C46">
+        <v>84000</v>
+      </c>
+      <c r="D46">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>503</v>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>735</v>
+      </c>
+      <c r="C48">
+        <v>84000</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C50">
-        <f>SUM(C2:C47)</f>
-        <v>3547000</v>
+        <f>SUM(C2:C48)</f>
+        <v>3580000</v>
       </c>
       <c r="D50" s="9">
         <f>SUM(D3:D47)</f>
-        <v>13057000</v>
+        <v>11822000</v>
       </c>
       <c r="E50">
         <f>SUM(E3:E47)</f>
@@ -13144,7 +14573,7 @@
       </c>
       <c r="G50" s="9">
         <f>C50+D50+E50+F50</f>
-        <v>22104000</v>
+        <v>20902000</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -13171,10 +14600,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13215,7 +14644,7 @@
         <v>6457</v>
       </c>
       <c r="B2" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C2" t="s">
         <v>381</v>
@@ -13235,7 +14664,7 @@
         <v>6458</v>
       </c>
       <c r="B3" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C3" t="s">
         <v>381</v>
@@ -13263,13 +14692,13 @@
         <v>381</v>
       </c>
       <c r="L4" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="M4" t="s">
         <v>383</v>
       </c>
       <c r="N4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="Q4" t="s">
         <v>226</v>
@@ -13289,13 +14718,13 @@
         <v>6486</v>
       </c>
       <c r="B5" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D5">
         <v>8500</v>
       </c>
       <c r="G5" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="J5" s="1">
         <v>44800</v>
@@ -13342,16 +14771,16 @@
         <v>54</v>
       </c>
       <c r="H6" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="I6" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="Q6" t="s">
         <v>228</v>
@@ -13380,19 +14809,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="H7" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="I7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="K7" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="L7" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="Q7" t="s">
         <v>229</v>
@@ -13412,7 +14841,7 @@
         <v>1777</v>
       </c>
       <c r="B8" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C8" t="s">
         <v>381</v>
@@ -13421,16 +14850,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="H8" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="I8" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="J8" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="Q8" t="s">
         <v>234</v>
@@ -13453,16 +14882,16 @@
         <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="I9" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="J9" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="K9" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="Q9" t="s">
         <v>235</v>
@@ -13491,16 +14920,16 @@
         <v>5</v>
       </c>
       <c r="H10" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="I10" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="M10" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="N10" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="Q10" t="s">
         <v>242</v>
@@ -13517,7 +14946,7 @@
         <v>7444</v>
       </c>
       <c r="B11" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D11">
         <v>4000</v>
@@ -13529,16 +14958,16 @@
         <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="I11" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="L11" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="M11" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="Q11" t="s">
         <v>243</v>
@@ -13567,10 +14996,10 @@
         <v>83</v>
       </c>
       <c r="I12" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="K12" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="Q12" t="s">
         <v>244</v>
@@ -13596,7 +15025,7 @@
         <v>7000</v>
       </c>
       <c r="G13" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
@@ -13610,7 +15039,7 @@
         <v>70</v>
       </c>
       <c r="I14" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="Q14" t="s">
         <v>40</v>
@@ -13633,7 +15062,7 @@
         <v>32</v>
       </c>
       <c r="I15" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="Q15" t="s">
         <v>233</v>
@@ -13674,27 +15103,55 @@
         <v>15500</v>
       </c>
     </row>
+    <row r="19" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="L19" t="s">
+        <v>737</v>
+      </c>
+      <c r="M19" t="s">
+        <v>745</v>
+      </c>
+    </row>
     <row r="20" spans="4:19" x14ac:dyDescent="0.3">
       <c r="E20">
         <f>SUM(E2:E19)</f>
         <v>40</v>
       </c>
+      <c r="L20" t="s">
+        <v>738</v>
+      </c>
+      <c r="M20" t="s">
+        <v>745</v>
+      </c>
       <c r="Q20" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="21" spans="4:19" x14ac:dyDescent="0.3">
       <c r="H21" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="I21" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="J21">
         <v>2</v>
       </c>
+      <c r="L21" t="s">
+        <v>739</v>
+      </c>
+      <c r="M21" t="s">
+        <v>745</v>
+      </c>
       <c r="Q21" t="s">
         <v>310</v>
+      </c>
+    </row>
+    <row r="23" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="L23" t="s">
+        <v>740</v>
+      </c>
+      <c r="M23" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="24" spans="4:19" x14ac:dyDescent="0.3">
@@ -13704,16 +15161,28 @@
       <c r="J24">
         <v>10</v>
       </c>
+      <c r="L24" t="s">
+        <v>741</v>
+      </c>
+      <c r="M24" t="s">
+        <v>746</v>
+      </c>
     </row>
     <row r="25" spans="4:19" x14ac:dyDescent="0.3">
       <c r="H25" t="s">
         <v>5</v>
       </c>
       <c r="I25" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="J25">
         <v>15</v>
+      </c>
+      <c r="L25" t="s">
+        <v>742</v>
+      </c>
+      <c r="M25" t="s">
+        <v>746</v>
       </c>
       <c r="S25">
         <f>SUM(S3:S24)</f>
@@ -13724,6 +15193,20 @@
       <c r="J26">
         <f>SUM(J20:J25)</f>
         <v>27</v>
+      </c>
+      <c r="L26" t="s">
+        <v>743</v>
+      </c>
+      <c r="M26" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="28" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="L28" t="s">
+        <v>744</v>
+      </c>
+      <c r="M28" t="s">
+        <v>746</v>
       </c>
     </row>
   </sheetData>
@@ -13733,10 +15216,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:R130"/>
+  <dimension ref="A6:R160"/>
   <sheetViews>
-    <sheetView topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="H126" sqref="H126"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="I145" sqref="I145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14449,6 +15932,14 @@
       <c r="C57" t="s">
         <v>329</v>
       </c>
+      <c r="E57">
+        <f>SUM(E35:E56)</f>
+        <v>1307539.6499999999</v>
+      </c>
+      <c r="F57">
+        <f>SUM(F34:F56)</f>
+        <v>858800.27</v>
+      </c>
       <c r="N57" t="s">
         <v>312</v>
       </c>
@@ -14718,7 +16209,7 @@
         <v>83</v>
       </c>
       <c r="I76" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.3">
@@ -14735,7 +16226,7 @@
         <v>83</v>
       </c>
       <c r="I77" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="J77">
         <v>1287500</v>
@@ -14779,7 +16270,7 @@
         <v>1600000</v>
       </c>
       <c r="R78" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.3">
@@ -14796,7 +16287,7 @@
         <v>70</v>
       </c>
       <c r="I79" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="J79">
         <v>2000000</v>
@@ -14825,7 +16316,7 @@
         <v>83</v>
       </c>
       <c r="I80" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="J80">
         <v>1825000</v>
@@ -14854,7 +16345,7 @@
         <v>3231433</v>
       </c>
       <c r="L82" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="M82">
         <v>2400000</v>
@@ -14862,7 +16353,7 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L83" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="M83">
         <v>520000</v>
@@ -14876,7 +16367,7 @@
         <v>451</v>
       </c>
       <c r="L84" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="M84">
         <v>625000</v>
@@ -14896,7 +16387,7 @@
         <v>139</v>
       </c>
       <c r="L85" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="M85">
         <v>2810000</v>
@@ -14904,10 +16395,10 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D86" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E86">
         <v>148166</v>
@@ -14918,10 +16409,10 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D87" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E87">
         <v>47317</v>
@@ -14932,7 +16423,7 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D88" t="s">
         <v>263</v>
@@ -14946,7 +16437,7 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D89" t="s">
         <v>263</v>
@@ -14960,7 +16451,7 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D90" t="s">
         <v>248</v>
@@ -14969,7 +16460,7 @@
         <v>40621</v>
       </c>
       <c r="G90" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="J90">
         <f>SUM(J74:J89)</f>
@@ -14982,7 +16473,7 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D93" t="s">
         <v>263</v>
@@ -14991,12 +16482,12 @@
         <v>315040</v>
       </c>
       <c r="G93" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D94" t="s">
         <v>263</v>
@@ -15005,7 +16496,7 @@
         <v>625065</v>
       </c>
       <c r="G94" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
@@ -15016,12 +16507,12 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D99" t="s">
         <v>263</v>
@@ -15030,15 +16521,12 @@
         <v>971627</v>
       </c>
       <c r="G99" t="s">
-        <v>532</v>
-      </c>
-      <c r="H99" t="s">
-        <v>273</v>
+        <v>529</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D100" t="s">
         <v>263</v>
@@ -15047,15 +16535,12 @@
         <v>1251447</v>
       </c>
       <c r="G100" t="s">
-        <v>534</v>
-      </c>
-      <c r="H100" t="s">
-        <v>273</v>
+        <v>531</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D101" t="s">
         <v>263</v>
@@ -15064,15 +16549,12 @@
         <v>107043</v>
       </c>
       <c r="G101" t="s">
-        <v>539</v>
-      </c>
-      <c r="H101" t="s">
-        <v>273</v>
+        <v>536</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D102" t="s">
         <v>263</v>
@@ -15083,13 +16565,10 @@
       <c r="G102" t="s">
         <v>83</v>
       </c>
-      <c r="H102" t="s">
-        <v>273</v>
-      </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D103" t="s">
         <v>256</v>
@@ -15100,13 +16579,10 @@
       <c r="G103" t="s">
         <v>83</v>
       </c>
-      <c r="H103" t="s">
-        <v>273</v>
-      </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D104" t="s">
         <v>263</v>
@@ -15117,13 +16593,10 @@
       <c r="G104" t="s">
         <v>83</v>
       </c>
-      <c r="H104" t="s">
-        <v>273</v>
-      </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D105" t="s">
         <v>263</v>
@@ -15132,15 +16605,12 @@
         <v>1400128</v>
       </c>
       <c r="G105" t="s">
-        <v>628</v>
-      </c>
-      <c r="H105" t="s">
-        <v>273</v>
+        <v>625</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C106" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D106" t="s">
         <v>263</v>
@@ -15151,13 +16621,10 @@
       <c r="G106" t="s">
         <v>83</v>
       </c>
-      <c r="H106" t="s">
-        <v>273</v>
-      </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C107" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D107" t="s">
         <v>263</v>
@@ -15168,13 +16635,10 @@
       <c r="G107" t="s">
         <v>83</v>
       </c>
-      <c r="H107" t="s">
-        <v>273</v>
-      </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C108" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D108" t="s">
         <v>263</v>
@@ -15184,9 +16648,6 @@
       </c>
       <c r="G108" t="s">
         <v>83</v>
-      </c>
-      <c r="H108" t="s">
-        <v>273</v>
       </c>
       <c r="N108">
         <v>6700000</v>
@@ -15208,16 +16669,19 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="N112">
         <f>SUM(N107:N111)</f>
         <v>13900000</v>
       </c>
     </row>
-    <row r="113" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>273</v>
+      </c>
       <c r="C113" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D113" t="s">
         <v>263</v>
@@ -15229,9 +16693,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="114" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>273</v>
+      </c>
       <c r="C114" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D114" t="s">
         <v>263</v>
@@ -15243,9 +16710,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="115" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>273</v>
+      </c>
       <c r="C115" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D115" t="s">
         <v>248</v>
@@ -15257,9 +16727,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="116" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>273</v>
+      </c>
       <c r="C116" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D116" t="s">
         <v>248</v>
@@ -15271,9 +16744,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="117" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
+        <v>273</v>
+      </c>
       <c r="C117" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D117" t="s">
         <v>256</v>
@@ -15285,9 +16761,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="118" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>273</v>
+      </c>
       <c r="C118" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D118" t="s">
         <v>263</v>
@@ -15299,9 +16778,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="119" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>273</v>
+      </c>
       <c r="C119" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="D119" t="s">
         <v>263</v>
@@ -15313,9 +16795,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="120" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>273</v>
+      </c>
       <c r="C120" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D120" t="s">
         <v>263</v>
@@ -15326,9 +16811,6 @@
       <c r="G120" t="s">
         <v>240</v>
       </c>
-      <c r="K120" t="s">
-        <v>632</v>
-      </c>
       <c r="N120" t="s">
         <v>453</v>
       </c>
@@ -15336,9 +16818,12 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="121" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
+        <v>273</v>
+      </c>
       <c r="C121" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="D121" t="s">
         <v>256</v>
@@ -15349,22 +16834,25 @@
       <c r="G121" t="s">
         <v>83</v>
       </c>
-      <c r="K121" t="s">
-        <v>241</v>
-      </c>
       <c r="L121">
         <v>1450000</v>
       </c>
+      <c r="M121" s="1">
+        <v>44781</v>
+      </c>
       <c r="N121" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="O121">
         <v>1500000</v>
       </c>
     </row>
-    <row r="122" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
+        <v>273</v>
+      </c>
       <c r="C122" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D122" t="s">
         <v>263</v>
@@ -15375,16 +16863,22 @@
       <c r="G122" t="s">
         <v>83</v>
       </c>
+      <c r="L122">
+        <v>1350000</v>
+      </c>
       <c r="N122" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="O122">
         <v>1275000</v>
       </c>
     </row>
-    <row r="123" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B123" t="s">
+        <v>273</v>
+      </c>
       <c r="C123" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="D123" t="s">
         <v>256</v>
@@ -15395,16 +16889,26 @@
       <c r="G123" t="s">
         <v>83</v>
       </c>
+      <c r="K123" s="1"/>
+      <c r="L123">
+        <v>1000000</v>
+      </c>
+      <c r="M123" s="1">
+        <v>44796</v>
+      </c>
       <c r="N123" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="O123">
         <v>106000</v>
       </c>
     </row>
-    <row r="124" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
+        <v>273</v>
+      </c>
       <c r="C124" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="D124" t="s">
         <v>263</v>
@@ -15415,16 +16919,25 @@
       <c r="G124" t="s">
         <v>32</v>
       </c>
+      <c r="L124">
+        <v>1000000</v>
+      </c>
+      <c r="M124" s="1">
+        <v>44800</v>
+      </c>
       <c r="N124" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="O124">
         <v>550000</v>
       </c>
     </row>
-    <row r="125" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B125" t="s">
+        <v>273</v>
+      </c>
       <c r="C125" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="D125" t="s">
         <v>263</v>
@@ -15435,16 +16948,25 @@
       <c r="G125" t="s">
         <v>70</v>
       </c>
+      <c r="L125">
+        <v>1000000</v>
+      </c>
+      <c r="M125" s="1">
+        <v>44805</v>
+      </c>
       <c r="N125" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="O125">
         <v>4250000</v>
       </c>
     </row>
-    <row r="126" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
+        <v>273</v>
+      </c>
       <c r="C126" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="D126" t="s">
         <v>263</v>
@@ -15455,15 +16977,207 @@
       <c r="G126" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="130" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L126">
+        <v>1300000</v>
+      </c>
+    </row>
+    <row r="127" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
+        <v>273</v>
+      </c>
+      <c r="C127" t="s">
+        <v>712</v>
+      </c>
+      <c r="D127" t="s">
+        <v>263</v>
+      </c>
+      <c r="E127">
+        <v>57210</v>
+      </c>
+      <c r="G127" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="128" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>273</v>
+      </c>
+      <c r="C128" t="s">
+        <v>713</v>
+      </c>
+      <c r="D128" t="s">
+        <v>263</v>
+      </c>
+      <c r="E128">
+        <v>57210</v>
+      </c>
+      <c r="G128" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B129" t="s">
+        <v>273</v>
+      </c>
+      <c r="C129" t="s">
+        <v>717</v>
+      </c>
+      <c r="D129" t="s">
+        <v>256</v>
+      </c>
+      <c r="E129">
+        <v>172652</v>
+      </c>
+      <c r="G129" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>273</v>
+      </c>
+      <c r="C130" t="s">
+        <v>718</v>
+      </c>
+      <c r="D130" t="s">
+        <v>256</v>
+      </c>
+      <c r="E130">
+        <v>172652</v>
+      </c>
+      <c r="G130" t="s">
+        <v>385</v>
+      </c>
       <c r="L130">
         <f>SUM(L119:L129)</f>
-        <v>1450000</v>
-      </c>
-      <c r="O130">
-        <f>SUM(O119:O129)</f>
-        <v>8181000</v>
+        <v>7100000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B131" t="s">
+        <v>273</v>
+      </c>
+      <c r="C131" t="s">
+        <v>719</v>
+      </c>
+      <c r="D131" t="s">
+        <v>256</v>
+      </c>
+      <c r="E131">
+        <v>171652</v>
+      </c>
+      <c r="G131" t="s">
+        <v>385</v>
+      </c>
+      <c r="N131" t="s">
+        <v>547</v>
+      </c>
+      <c r="O131">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B132" t="s">
+        <v>273</v>
+      </c>
+      <c r="C132" t="s">
+        <v>720</v>
+      </c>
+      <c r="D132" t="s">
+        <v>263</v>
+      </c>
+      <c r="E132">
+        <v>535649</v>
+      </c>
+      <c r="G132" t="s">
+        <v>385</v>
+      </c>
+      <c r="N132" t="s">
+        <v>727</v>
+      </c>
+      <c r="O132">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N133" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N134" t="s">
+        <v>729</v>
+      </c>
+      <c r="O134">
+        <v>950000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E135">
+        <f>SUM(E112:E134)</f>
+        <v>6363857</v>
+      </c>
+      <c r="N135" t="s">
+        <v>166</v>
+      </c>
+      <c r="O135">
+        <v>6360000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>731</v>
+      </c>
+      <c r="O137">
+        <f>SUM(O130:O136)</f>
+        <v>10310000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C138" t="s">
+        <v>730</v>
+      </c>
+      <c r="D138" t="s">
+        <v>256</v>
+      </c>
+      <c r="E138">
+        <v>221147</v>
+      </c>
+      <c r="G138" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C139" t="s">
+        <v>732</v>
+      </c>
+      <c r="D139" t="s">
+        <v>263</v>
+      </c>
+      <c r="E139">
+        <v>150915</v>
+      </c>
+      <c r="G139" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C140" t="s">
+        <v>733</v>
+      </c>
+      <c r="D140" t="s">
+        <v>256</v>
+      </c>
+      <c r="E140">
+        <v>61337</v>
+      </c>
+      <c r="G140" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C160" t="s">
+        <v>726</v>
       </c>
     </row>
   </sheetData>
@@ -15500,7 +17214,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E1" t="s">
         <v>221</v>
@@ -15520,13 +17234,13 @@
         <v>44693</v>
       </c>
       <c r="B9" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C9" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D9" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G9">
         <v>32000</v>
@@ -15537,13 +17251,13 @@
         <v>44706</v>
       </c>
       <c r="B10" t="s">
+        <v>489</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
         <v>492</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>495</v>
       </c>
       <c r="E10">
         <v>40000</v>
@@ -15560,7 +17274,7 @@
         <v>44708</v>
       </c>
       <c r="B11" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -15583,7 +17297,7 @@
         <v>44708</v>
       </c>
       <c r="B12" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -15606,13 +17320,13 @@
         <v>44711</v>
       </c>
       <c r="B13" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E13">
         <v>20000</v>
@@ -15629,13 +17343,13 @@
         <v>44735</v>
       </c>
       <c r="B14" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C14" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D14" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E14">
         <v>5000</v>
@@ -15652,13 +17366,13 @@
         <v>44735</v>
       </c>
       <c r="B15" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C15" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D15" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G15">
         <v>32000</v>
@@ -15669,13 +17383,13 @@
         <v>44735</v>
       </c>
       <c r="B16" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C16" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D16" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E16">
         <v>75000</v>
@@ -15692,13 +17406,13 @@
         <v>44741</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C17" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D17" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G17">
         <v>32000</v>
@@ -15709,13 +17423,13 @@
         <v>44783</v>
       </c>
       <c r="B18" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C18" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D18" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="F18" s="1">
         <v>44783</v>
@@ -15787,10 +17501,10 @@
         <v>146</v>
       </c>
       <c r="B1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D1" t="s">
         <v>209</v>
@@ -15802,16 +17516,16 @@
         <v>54</v>
       </c>
       <c r="J1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="K1" t="s">
         <v>2</v>
       </c>
       <c r="L1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="M1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -15830,10 +17544,10 @@
         <v>6000</v>
       </c>
       <c r="D3" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E3" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="I3" s="1">
         <v>44743</v>
@@ -15842,13 +17556,13 @@
         <v>1999</v>
       </c>
       <c r="K3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="L3" t="s">
         <v>213</v>
       </c>
       <c r="M3" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -15859,22 +17573,22 @@
         <v>6000</v>
       </c>
       <c r="D4" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E4" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="J4">
         <v>1999</v>
       </c>
       <c r="K4" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="L4" t="s">
         <v>216</v>
       </c>
       <c r="M4" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="N4">
         <v>5000</v>
@@ -15891,22 +17605,22 @@
         <v>6000</v>
       </c>
       <c r="D5" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E5" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="J5">
         <v>7211</v>
       </c>
       <c r="K5" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="L5" t="s">
         <v>216</v>
       </c>
       <c r="M5" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="N5">
         <v>5000</v>
@@ -15923,7 +17637,7 @@
         <v>6000</v>
       </c>
       <c r="D6" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E6" t="s">
         <v>129</v>
@@ -15938,7 +17652,7 @@
         <v>213</v>
       </c>
       <c r="M6" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -15949,7 +17663,7 @@
         <v>6000</v>
       </c>
       <c r="D7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E7" t="s">
         <v>129</v>
@@ -15964,10 +17678,10 @@
         <v>55</v>
       </c>
       <c r="L7" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="M7" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -15978,13 +17692,13 @@
         <v>6000</v>
       </c>
       <c r="D8" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E8" t="s">
+        <v>519</v>
+      </c>
+      <c r="G8" t="s">
         <v>522</v>
-      </c>
-      <c r="G8" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -15995,10 +17709,10 @@
         <v>6000</v>
       </c>
       <c r="D9" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E9" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -16009,10 +17723,10 @@
         <v>4000</v>
       </c>
       <c r="D10" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E10" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -16026,13 +17740,13 @@
         <v>3000</v>
       </c>
       <c r="D11" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E11" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G11" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -16043,10 +17757,10 @@
         <v>6000</v>
       </c>
       <c r="D12" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E12" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -16057,10 +17771,10 @@
         <v>6000</v>
       </c>
       <c r="D13" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E13" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -16071,16 +17785,16 @@
         <v>10000</v>
       </c>
       <c r="D14" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E14" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G14" t="s">
+        <v>532</v>
+      </c>
+      <c r="M14" t="s">
         <v>535</v>
-      </c>
-      <c r="M14" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -16091,13 +17805,13 @@
         <v>6000</v>
       </c>
       <c r="D15" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E15" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="G15" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -16111,13 +17825,13 @@
         <v>5500</v>
       </c>
       <c r="D16" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E16" t="s">
         <v>432</v>
       </c>
       <c r="G16" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -16138,16 +17852,16 @@
         <v>16500</v>
       </c>
       <c r="D19" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E19" t="s">
         <v>432</v>
       </c>
       <c r="G19" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="M19" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="O19">
         <v>5000</v>
@@ -16161,13 +17875,13 @@
         <v>3000</v>
       </c>
       <c r="D20" t="s">
+        <v>523</v>
+      </c>
+      <c r="E20" t="s">
+        <v>520</v>
+      </c>
+      <c r="G20" t="s">
         <v>526</v>
-      </c>
-      <c r="E20" t="s">
-        <v>523</v>
-      </c>
-      <c r="G20" t="s">
-        <v>529</v>
       </c>
       <c r="M20">
         <v>7133</v>
@@ -16184,13 +17898,13 @@
         <v>16000</v>
       </c>
       <c r="D21" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E21" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G21" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -16204,13 +17918,13 @@
         <v>20000</v>
       </c>
       <c r="D22" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E22" t="s">
         <v>432</v>
       </c>
       <c r="G22" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
@@ -16221,7 +17935,7 @@
         <v>3000</v>
       </c>
       <c r="D23" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E23" t="s">
         <v>432</v>
@@ -16236,7 +17950,7 @@
         <v>3000</v>
       </c>
       <c r="D24" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E24" t="s">
         <v>432</v>
@@ -16254,7 +17968,7 @@
         <v>5000</v>
       </c>
       <c r="G25" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="N25" s="12"/>
     </row>
@@ -16266,7 +17980,7 @@
         <v>1000</v>
       </c>
       <c r="G26" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="N26" s="12"/>
     </row>
@@ -16281,7 +17995,7 @@
         <v>321</v>
       </c>
       <c r="E27" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
@@ -16292,13 +18006,13 @@
         <v>8000</v>
       </c>
       <c r="D28" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E28" t="s">
         <v>320</v>
       </c>
       <c r="G28" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
@@ -16309,10 +18023,10 @@
         <v>6000</v>
       </c>
       <c r="D29" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E29" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
@@ -16326,7 +18040,7 @@
         <v>321</v>
       </c>
       <c r="E30" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
@@ -16340,10 +18054,10 @@
         <v>6000</v>
       </c>
       <c r="D31" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E31" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
@@ -16354,7 +18068,7 @@
         <v>6000</v>
       </c>
       <c r="D32" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E32" t="s">
         <v>129</v>
@@ -16371,13 +18085,13 @@
         <v>10000</v>
       </c>
       <c r="D33" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E33" t="s">
         <v>129</v>
       </c>
       <c r="G33" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -16391,13 +18105,13 @@
         <v>12000</v>
       </c>
       <c r="D34" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E34" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="G34" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -16411,13 +18125,13 @@
         <v>15000</v>
       </c>
       <c r="D35" t="s">
+        <v>551</v>
+      </c>
+      <c r="E35" t="s">
+        <v>552</v>
+      </c>
+      <c r="G35" t="s">
         <v>554</v>
-      </c>
-      <c r="E35" t="s">
-        <v>555</v>
-      </c>
-      <c r="G35" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -16431,13 +18145,13 @@
         <v>7000</v>
       </c>
       <c r="D36" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E36" t="s">
+        <v>552</v>
+      </c>
+      <c r="G36" t="s">
         <v>555</v>
-      </c>
-      <c r="G36" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -16448,10 +18162,10 @@
         <v>6000</v>
       </c>
       <c r="D37" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E37" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -16462,10 +18176,10 @@
         <v>6000</v>
       </c>
       <c r="D38" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E38" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -16476,10 +18190,10 @@
         <v>6000</v>
       </c>
       <c r="D39" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E39" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -16490,10 +18204,10 @@
         <v>6000</v>
       </c>
       <c r="D40" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E40" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -16504,13 +18218,13 @@
         <v>7000</v>
       </c>
       <c r="D41" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E41" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="G41" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -16524,10 +18238,10 @@
         <v>6000</v>
       </c>
       <c r="D42" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E42" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -16538,10 +18252,10 @@
         <v>6400</v>
       </c>
       <c r="D43" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E43" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -16555,7 +18269,7 @@
         <v>6000</v>
       </c>
       <c r="D44" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E44" t="s">
         <v>129</v>
@@ -16569,10 +18283,10 @@
         <v>6000</v>
       </c>
       <c r="D45" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E45" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -16583,10 +18297,10 @@
         <v>6000</v>
       </c>
       <c r="D46" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E46" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -16597,10 +18311,10 @@
         <v>6000</v>
       </c>
       <c r="D47" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E47" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -16611,10 +18325,10 @@
         <v>6000</v>
       </c>
       <c r="D48" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E48" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -16625,10 +18339,10 @@
         <v>10000</v>
       </c>
       <c r="D49" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E49" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G49" t="s">
         <v>220</v>
@@ -16645,7 +18359,7 @@
         <v>5000</v>
       </c>
       <c r="D50" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -16656,10 +18370,10 @@
         <v>20000</v>
       </c>
       <c r="D51" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E51" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -16670,10 +18384,10 @@
         <v>15000</v>
       </c>
       <c r="D52" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E52" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -16687,7 +18401,7 @@
         <v>6000</v>
       </c>
       <c r="D53" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -16698,7 +18412,7 @@
         <v>159</v>
       </c>
       <c r="E54" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="J54" t="s">
         <v>55</v>
@@ -16715,7 +18429,7 @@
         <v>159</v>
       </c>
       <c r="E55" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="J55" t="s">
         <v>70</v>
@@ -16732,7 +18446,7 @@
         <v>6000</v>
       </c>
       <c r="D56" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="J56" t="s">
         <v>83</v>
@@ -16749,7 +18463,7 @@
         <v>6000</v>
       </c>
       <c r="D57" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="J57" t="s">
         <v>108</v>
@@ -16772,7 +18486,7 @@
         <v>5</v>
       </c>
       <c r="E58" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G58" s="1">
         <v>44799</v>
@@ -16789,7 +18503,7 @@
         <v>5</v>
       </c>
       <c r="E59" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G59" s="1">
         <v>44799</v>
@@ -16803,7 +18517,7 @@
         <v>8500</v>
       </c>
       <c r="D60" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="E60" t="s">
         <v>337</v>
@@ -16820,10 +18534,10 @@
         <v>8500</v>
       </c>
       <c r="D61" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="E61" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G61" s="1">
         <v>44799</v>
@@ -16840,10 +18554,10 @@
         <v>3000</v>
       </c>
       <c r="D62" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="E62" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G62" s="1">
         <v>44800</v>
@@ -16857,10 +18571,10 @@
         <v>6000</v>
       </c>
       <c r="D63" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="E63" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G63" s="1">
         <v>44774</v>
@@ -16877,7 +18591,7 @@
         <v>5</v>
       </c>
       <c r="E64" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G64" s="1">
         <v>44799</v>
@@ -16894,7 +18608,7 @@
         <v>5</v>
       </c>
       <c r="E65" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G65" s="1">
         <v>44799</v>
@@ -16911,10 +18625,10 @@
         <v>5</v>
       </c>
       <c r="E66" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F66" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="G66" s="1">
         <v>44799</v>
@@ -16931,10 +18645,10 @@
         <v>6000</v>
       </c>
       <c r="D67" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E67" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G67" s="1">
         <v>44770</v>
@@ -16948,10 +18662,10 @@
         <v>6000</v>
       </c>
       <c r="D68" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E68" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G68" s="1">
         <v>44770</v>
@@ -16962,13 +18676,13 @@
         <v>7444</v>
       </c>
       <c r="D69" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E69" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F69" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G69" s="1">
         <v>44770</v>
@@ -16982,13 +18696,13 @@
         <v>7500</v>
       </c>
       <c r="D70" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E70" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F70" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="G70" s="1">
         <v>44770</v>
@@ -17005,13 +18719,13 @@
         <v>5000</v>
       </c>
       <c r="D71" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E71" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F71" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G71" s="1">
         <v>44770</v>
@@ -17028,13 +18742,13 @@
         <v>5000</v>
       </c>
       <c r="D72" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E72" t="s">
         <v>5</v>
       </c>
       <c r="F72" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -17045,7 +18759,7 @@
         <v>6000</v>
       </c>
       <c r="D73" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E73" t="s">
         <v>5</v>
@@ -17062,7 +18776,7 @@
         <v>6000</v>
       </c>
       <c r="D74" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E74" t="s">
         <v>5</v>
@@ -17076,7 +18790,7 @@
         <v>6000</v>
       </c>
       <c r="D75" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E75" t="s">
         <v>5</v>
@@ -17096,7 +18810,7 @@
         <v>6000</v>
       </c>
       <c r="D76" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E76" t="s">
         <v>5</v>
@@ -17113,7 +18827,7 @@
         <v>6000</v>
       </c>
       <c r="D77" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E77" t="s">
         <v>5</v>
@@ -17130,7 +18844,7 @@
         <v>6000</v>
       </c>
       <c r="D78" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E78" t="s">
         <v>5</v>
@@ -17147,7 +18861,7 @@
         <v>6000</v>
       </c>
       <c r="D79" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E79" t="s">
         <v>5</v>
@@ -17167,10 +18881,10 @@
         <v>8000</v>
       </c>
       <c r="D80" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E80" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="G80" s="1">
         <v>44774</v>
@@ -17184,13 +18898,13 @@
         <v>20000</v>
       </c>
       <c r="D81" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E81" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F81" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
@@ -17201,13 +18915,13 @@
         <v>7000</v>
       </c>
       <c r="D82" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E82" t="s">
         <v>5</v>
       </c>
       <c r="F82" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="G82" s="1">
         <v>44774</v>
@@ -17221,7 +18935,7 @@
         <v>6000</v>
       </c>
       <c r="D83" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E83" t="s">
         <v>5</v>
@@ -17238,7 +18952,7 @@
         <v>6000</v>
       </c>
       <c r="D84" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E84" t="s">
         <v>5</v>
@@ -17258,13 +18972,13 @@
         <v>6000</v>
       </c>
       <c r="D85" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E85" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="F85" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G85" s="1">
         <v>44778</v>
@@ -17278,10 +18992,10 @@
         <v>6000</v>
       </c>
       <c r="D86" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E86" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="G86" s="1">
         <v>44780</v>
@@ -17292,13 +19006,13 @@
         <v>7444</v>
       </c>
       <c r="C87" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D87" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E87" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="F87">
         <v>4000</v>
@@ -17315,10 +19029,10 @@
         <v>6000</v>
       </c>
       <c r="D88" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E88" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="G88" s="1">
         <v>44780</v>
@@ -17332,16 +19046,16 @@
         <v>6000</v>
       </c>
       <c r="D89" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E89" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="G89" s="1">
         <v>44783</v>
       </c>
       <c r="J89" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="K89">
         <v>10000</v>
@@ -17362,7 +19076,7 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="M92">
         <v>2000</v>
@@ -17376,13 +19090,13 @@
         <v>5895</v>
       </c>
       <c r="D94" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E94" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="F94" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
@@ -17393,19 +19107,19 @@
         <v>9000</v>
       </c>
       <c r="D95" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E95" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="F95" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G95" s="1">
         <v>44780</v>
       </c>
       <c r="H95" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
@@ -17416,10 +19130,10 @@
         <v>6000</v>
       </c>
       <c r="D96" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E96" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="G96" s="1">
         <v>44780</v>
@@ -17433,10 +19147,10 @@
         <v>6000</v>
       </c>
       <c r="D97" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E97" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="G97" s="1">
         <v>44780</v>
@@ -17453,13 +19167,13 @@
         <v>12000</v>
       </c>
       <c r="D98" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E98" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="F98" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="G98" s="1">
         <v>44779</v>
@@ -17473,16 +19187,16 @@
         <v>3500</v>
       </c>
       <c r="D99" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E99" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="G99" s="1">
         <v>44778</v>
       </c>
       <c r="H99" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
@@ -17493,16 +19207,16 @@
         <v>3500</v>
       </c>
       <c r="D100" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E100" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="G100" s="1">
         <v>44780</v>
       </c>
       <c r="H100" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
@@ -17513,16 +19227,16 @@
         <v>6000</v>
       </c>
       <c r="D101" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E101" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G101" s="1">
         <v>44780</v>
       </c>
       <c r="H101" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
@@ -17533,10 +19247,10 @@
         <v>6000</v>
       </c>
       <c r="D102" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E102" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G102" s="1">
         <v>44780</v>
@@ -17553,10 +19267,10 @@
         <v>6000</v>
       </c>
       <c r="D103" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E103" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G103" s="1">
         <v>44783</v>
@@ -17573,16 +19287,16 @@
         <v>3500</v>
       </c>
       <c r="D104" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E104" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="G104" s="1">
         <v>44780</v>
       </c>
       <c r="H104" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.3">
@@ -17593,16 +19307,16 @@
         <v>3500</v>
       </c>
       <c r="D105" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E105" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="G105" s="1">
         <v>44780</v>
       </c>
       <c r="H105" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.3">
@@ -17613,7 +19327,7 @@
         <v>18000</v>
       </c>
       <c r="D106" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="E106" t="s">
         <v>211</v>
@@ -17622,7 +19336,7 @@
         <v>44782</v>
       </c>
       <c r="H106" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.3">
@@ -17636,16 +19350,16 @@
         <v>3500</v>
       </c>
       <c r="D107" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E107" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="G107" s="1">
         <v>44783</v>
       </c>
       <c r="H107" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
@@ -17656,16 +19370,16 @@
         <v>6000</v>
       </c>
       <c r="D108" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E108" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="G108" s="1">
         <v>44780</v>
       </c>
       <c r="H108" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.3">
@@ -17676,10 +19390,10 @@
         <v>6000</v>
       </c>
       <c r="D109" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E109" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="G109" s="1">
         <v>44783</v>
@@ -17696,13 +19410,13 @@
         <v>25000</v>
       </c>
       <c r="D110" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E110" t="s">
         <v>165</v>
       </c>
       <c r="G110" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.3">
@@ -17713,10 +19427,10 @@
         <v>6000</v>
       </c>
       <c r="D111" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E111" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="G111" s="1">
         <v>44780</v>
@@ -17730,10 +19444,10 @@
         <v>6486</v>
       </c>
       <c r="D112" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E112" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
@@ -17747,10 +19461,10 @@
         <v>8500</v>
       </c>
       <c r="D113" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E113" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="G113" s="1">
         <v>44783</v>
@@ -17764,7 +19478,7 @@
         <v>6486</v>
       </c>
       <c r="D114" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E114" t="s">
         <v>165</v>
@@ -17778,7 +19492,7 @@
         <v>6000</v>
       </c>
       <c r="D115" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E115" t="s">
         <v>163</v>
@@ -17792,7 +19506,7 @@
         <v>6458</v>
       </c>
       <c r="D116" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E116" t="s">
         <v>163</v>
@@ -17809,7 +19523,7 @@
         <v>6000</v>
       </c>
       <c r="D117" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E117" t="s">
         <v>163</v>
@@ -17826,7 +19540,7 @@
         <v>6000</v>
       </c>
       <c r="D118" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E118" t="s">
         <v>163</v>
@@ -17843,16 +19557,16 @@
         <v>6000</v>
       </c>
       <c r="D119" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E119" t="s">
         <v>163</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="H119" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
@@ -17860,10 +19574,10 @@
         <v>7444</v>
       </c>
       <c r="D120" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E120" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
@@ -17874,7 +19588,7 @@
         <v>6000</v>
       </c>
       <c r="D121" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E121" t="s">
         <v>163</v>
@@ -17891,7 +19605,7 @@
         <v>6000</v>
       </c>
       <c r="D122" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E122" t="s">
         <v>163</v>
@@ -17900,7 +19614,7 @@
         <v>44783</v>
       </c>
       <c r="H122" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
@@ -17911,7 +19625,7 @@
         <v>7133</v>
       </c>
       <c r="D123" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E123" t="s">
         <v>163</v>
@@ -18073,102 +19787,102 @@
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B3">
         <v>9727562720</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="D3" t="s">
         <v>566</v>
-      </c>
-      <c r="D3" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B4">
         <v>9873799562</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D4" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D5" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B6" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D6" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B7">
         <v>7760984262</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B8">
         <v>7568393999</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D8" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B9">
         <v>9677538144</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D9" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D10" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -18197,7 +19911,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
@@ -18307,7 +20021,7 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
@@ -18372,12 +20086,12 @@
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
   </sheetData>
